--- a/TR-Tip/Groups.xlsx
+++ b/TR-Tip/Groups.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yilma\OneDrive\Masaüstü\AYBUZEMApp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yilma\OneDrive\Belgeler\GitHub\AYBUZEMApp\TR-Tip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B52AC5-E94A-4E5E-9C28-816DB24C33E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B08E9FA-C9DE-40DA-9270-915C5E2C5602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2031" uniqueCount="1135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2024" uniqueCount="1131">
   <si>
     <t>E-posta adresi</t>
   </si>
@@ -875,15 +875,6 @@
     <t>zeynepsevvaldemir55@gmail.com</t>
   </si>
   <si>
-    <t>FİKRİYE RANA</t>
-  </si>
-  <si>
-    <t>DEMİRALAY</t>
-  </si>
-  <si>
-    <t>fikriyeranademiralay@gmail.com</t>
-  </si>
-  <si>
     <t>DEMİREL</t>
   </si>
   <si>
@@ -2826,9 +2817,6 @@
   </si>
   <si>
     <t>ZEYNEP ŞEVVAL DEMİR</t>
-  </si>
-  <si>
-    <t>FİKRİYE RANA DEMİRALAY</t>
   </si>
   <si>
     <t>ELİF DEMİREL</t>
@@ -3478,10 +3466,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3816,10 +3803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H290"/>
+  <dimension ref="A1:H289"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K277" sqref="K277"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88:XFD88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3830,16 +3817,16 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -3851,7 +3838,7 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3862,7 +3849,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="D2">
         <v>23080241046</v>
@@ -3888,9 +3875,9 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>846</v>
-      </c>
-      <c r="D3" s="2">
+        <v>843</v>
+      </c>
+      <c r="D3">
         <v>25080241024</v>
       </c>
       <c r="E3" t="s">
@@ -3914,9 +3901,9 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>847</v>
-      </c>
-      <c r="D4" s="2">
+        <v>844</v>
+      </c>
+      <c r="D4">
         <v>24080241033</v>
       </c>
       <c r="E4" t="s">
@@ -3940,9 +3927,9 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>848</v>
-      </c>
-      <c r="D5" s="2">
+        <v>845</v>
+      </c>
+      <c r="D5">
         <v>22080241009</v>
       </c>
       <c r="E5" t="s">
@@ -3966,7 +3953,7 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="D6">
         <v>25080211089</v>
@@ -3992,9 +3979,9 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>850</v>
-      </c>
-      <c r="D7" s="2">
+        <v>847</v>
+      </c>
+      <c r="D7">
         <v>25080211075</v>
       </c>
       <c r="E7" t="s">
@@ -4018,9 +4005,9 @@
         <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>851</v>
-      </c>
-      <c r="D8" s="2">
+        <v>848</v>
+      </c>
+      <c r="D8">
         <v>23080241031</v>
       </c>
       <c r="E8" t="s">
@@ -4044,9 +4031,9 @@
         <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>852</v>
-      </c>
-      <c r="D9" s="2">
+        <v>849</v>
+      </c>
+      <c r="D9">
         <v>25080211037</v>
       </c>
       <c r="E9" t="s">
@@ -4070,9 +4057,9 @@
         <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>853</v>
-      </c>
-      <c r="D10" s="2">
+        <v>850</v>
+      </c>
+      <c r="D10">
         <v>24080211066</v>
       </c>
       <c r="E10" t="s">
@@ -4096,9 +4083,9 @@
         <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>854</v>
-      </c>
-      <c r="D11" s="2">
+        <v>851</v>
+      </c>
+      <c r="D11">
         <v>25080211029</v>
       </c>
       <c r="E11" t="s">
@@ -4122,9 +4109,9 @@
         <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>855</v>
-      </c>
-      <c r="D12" s="2">
+        <v>852</v>
+      </c>
+      <c r="D12">
         <v>25080251095</v>
       </c>
       <c r="E12" t="s">
@@ -4148,9 +4135,9 @@
         <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>856</v>
-      </c>
-      <c r="D13" s="2">
+        <v>853</v>
+      </c>
+      <c r="D13">
         <v>25080211146</v>
       </c>
       <c r="E13" t="s">
@@ -4174,9 +4161,9 @@
         <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>857</v>
-      </c>
-      <c r="D14" s="2">
+        <v>854</v>
+      </c>
+      <c r="D14">
         <v>25080211113</v>
       </c>
       <c r="E14" t="s">
@@ -4200,9 +4187,9 @@
         <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>858</v>
-      </c>
-      <c r="D15" s="2">
+        <v>855</v>
+      </c>
+      <c r="D15">
         <v>25080211060</v>
       </c>
       <c r="E15" t="s">
@@ -4226,9 +4213,9 @@
         <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>859</v>
-      </c>
-      <c r="D16" s="2">
+        <v>856</v>
+      </c>
+      <c r="D16">
         <v>25080211183</v>
       </c>
       <c r="E16" t="s">
@@ -4252,9 +4239,9 @@
         <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>860</v>
-      </c>
-      <c r="D17" s="2">
+        <v>857</v>
+      </c>
+      <c r="D17">
         <v>25080211097</v>
       </c>
       <c r="E17" t="s">
@@ -4278,9 +4265,9 @@
         <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>861</v>
-      </c>
-      <c r="D18" s="2">
+        <v>858</v>
+      </c>
+      <c r="D18">
         <v>25080251064</v>
       </c>
       <c r="E18" t="s">
@@ -4304,9 +4291,9 @@
         <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>862</v>
-      </c>
-      <c r="D19" s="2">
+        <v>859</v>
+      </c>
+      <c r="D19">
         <v>25080211127</v>
       </c>
       <c r="E19" t="s">
@@ -4330,9 +4317,9 @@
         <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>863</v>
-      </c>
-      <c r="D20" s="2">
+        <v>860</v>
+      </c>
+      <c r="D20">
         <v>25080211045</v>
       </c>
       <c r="E20" t="s">
@@ -4356,9 +4343,9 @@
         <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>864</v>
-      </c>
-      <c r="D21" s="2">
+        <v>861</v>
+      </c>
+      <c r="D21">
         <v>25080211154</v>
       </c>
       <c r="E21" t="s">
@@ -4382,9 +4369,9 @@
         <v>76</v>
       </c>
       <c r="C22" t="s">
-        <v>865</v>
-      </c>
-      <c r="D22" s="2">
+        <v>862</v>
+      </c>
+      <c r="D22">
         <v>25080211002</v>
       </c>
       <c r="E22" t="s">
@@ -4408,9 +4395,9 @@
         <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>866</v>
-      </c>
-      <c r="D23" s="2">
+        <v>863</v>
+      </c>
+      <c r="D23">
         <v>23080241043</v>
       </c>
       <c r="E23" t="s">
@@ -4434,9 +4421,9 @@
         <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>867</v>
-      </c>
-      <c r="D24" s="2">
+        <v>864</v>
+      </c>
+      <c r="D24">
         <v>25080241073</v>
       </c>
       <c r="E24" t="s">
@@ -4460,9 +4447,9 @@
         <v>90</v>
       </c>
       <c r="C25" t="s">
-        <v>868</v>
-      </c>
-      <c r="D25" s="2">
+        <v>865</v>
+      </c>
+      <c r="D25">
         <v>25080211162</v>
       </c>
       <c r="E25" t="s">
@@ -4486,9 +4473,9 @@
         <v>93</v>
       </c>
       <c r="C26" t="s">
-        <v>869</v>
-      </c>
-      <c r="D26" s="2">
+        <v>866</v>
+      </c>
+      <c r="D26">
         <v>25080241054</v>
       </c>
       <c r="E26" t="s">
@@ -4512,9 +4499,9 @@
         <v>97</v>
       </c>
       <c r="C27" t="s">
-        <v>870</v>
-      </c>
-      <c r="D27" s="2">
+        <v>867</v>
+      </c>
+      <c r="D27">
         <v>23080241051</v>
       </c>
       <c r="E27" t="s">
@@ -4538,9 +4525,9 @@
         <v>100</v>
       </c>
       <c r="C28" t="s">
-        <v>871</v>
-      </c>
-      <c r="D28" s="2">
+        <v>868</v>
+      </c>
+      <c r="D28">
         <v>25080211085</v>
       </c>
       <c r="E28" t="s">
@@ -4564,9 +4551,9 @@
         <v>100</v>
       </c>
       <c r="C29" t="s">
-        <v>872</v>
-      </c>
-      <c r="D29" s="2">
+        <v>869</v>
+      </c>
+      <c r="D29">
         <v>25080211168</v>
       </c>
       <c r="E29" t="s">
@@ -4590,9 +4577,9 @@
         <v>105</v>
       </c>
       <c r="C30" t="s">
-        <v>873</v>
-      </c>
-      <c r="D30" s="2">
+        <v>870</v>
+      </c>
+      <c r="D30">
         <v>23080241024</v>
       </c>
       <c r="E30" t="s">
@@ -4616,9 +4603,9 @@
         <v>108</v>
       </c>
       <c r="C31" t="s">
-        <v>874</v>
-      </c>
-      <c r="D31" s="2">
+        <v>871</v>
+      </c>
+      <c r="D31">
         <v>25080211022</v>
       </c>
       <c r="E31" t="s">
@@ -4642,9 +4629,9 @@
         <v>110</v>
       </c>
       <c r="C32" t="s">
-        <v>875</v>
-      </c>
-      <c r="D32" s="2">
+        <v>872</v>
+      </c>
+      <c r="D32">
         <v>24080241060</v>
       </c>
       <c r="E32" t="s">
@@ -4668,9 +4655,9 @@
         <v>114</v>
       </c>
       <c r="C33" t="s">
-        <v>876</v>
-      </c>
-      <c r="D33" s="2">
+        <v>873</v>
+      </c>
+      <c r="D33">
         <v>25080241063</v>
       </c>
       <c r="E33" t="s">
@@ -4694,9 +4681,9 @@
         <v>117</v>
       </c>
       <c r="C34" t="s">
-        <v>877</v>
-      </c>
-      <c r="D34" s="2">
+        <v>874</v>
+      </c>
+      <c r="D34">
         <v>25080211141</v>
       </c>
       <c r="E34" t="s">
@@ -4720,9 +4707,9 @@
         <v>120</v>
       </c>
       <c r="C35" t="s">
-        <v>878</v>
-      </c>
-      <c r="D35" s="2">
+        <v>875</v>
+      </c>
+      <c r="D35">
         <v>24080241103</v>
       </c>
       <c r="E35" t="s">
@@ -4746,9 +4733,9 @@
         <v>123</v>
       </c>
       <c r="C36" t="s">
-        <v>879</v>
-      </c>
-      <c r="D36" s="2">
+        <v>876</v>
+      </c>
+      <c r="D36">
         <v>25080211050</v>
       </c>
       <c r="E36" t="s">
@@ -4772,9 +4759,9 @@
         <v>127</v>
       </c>
       <c r="C37" t="s">
-        <v>880</v>
-      </c>
-      <c r="D37" s="2">
+        <v>877</v>
+      </c>
+      <c r="D37">
         <v>24080211020</v>
       </c>
       <c r="E37" t="s">
@@ -4798,9 +4785,9 @@
         <v>131</v>
       </c>
       <c r="C38" t="s">
-        <v>881</v>
-      </c>
-      <c r="D38" s="2">
+        <v>878</v>
+      </c>
+      <c r="D38">
         <v>24080211034</v>
       </c>
       <c r="E38" t="s">
@@ -4824,9 +4811,9 @@
         <v>134</v>
       </c>
       <c r="C39" t="s">
-        <v>882</v>
-      </c>
-      <c r="D39" s="2">
+        <v>879</v>
+      </c>
+      <c r="D39">
         <v>25080211157</v>
       </c>
       <c r="E39" t="s">
@@ -4850,9 +4837,9 @@
         <v>134</v>
       </c>
       <c r="C40" t="s">
-        <v>883</v>
-      </c>
-      <c r="D40" s="2">
+        <v>880</v>
+      </c>
+      <c r="D40">
         <v>25080211194</v>
       </c>
       <c r="E40" t="s">
@@ -4876,9 +4863,9 @@
         <v>139</v>
       </c>
       <c r="C41" t="s">
-        <v>884</v>
-      </c>
-      <c r="D41" s="2">
+        <v>881</v>
+      </c>
+      <c r="D41">
         <v>25080211137</v>
       </c>
       <c r="E41" t="s">
@@ -4902,9 +4889,9 @@
         <v>142</v>
       </c>
       <c r="C42" t="s">
-        <v>885</v>
-      </c>
-      <c r="D42" s="2">
+        <v>882</v>
+      </c>
+      <c r="D42">
         <v>25080211007</v>
       </c>
       <c r="E42" t="s">
@@ -4928,9 +4915,9 @@
         <v>146</v>
       </c>
       <c r="C43" t="s">
-        <v>886</v>
-      </c>
-      <c r="D43" s="2">
+        <v>883</v>
+      </c>
+      <c r="D43">
         <v>25080211091</v>
       </c>
       <c r="E43" t="s">
@@ -4954,9 +4941,9 @@
         <v>149</v>
       </c>
       <c r="C44" t="s">
-        <v>887</v>
-      </c>
-      <c r="D44" s="2">
+        <v>884</v>
+      </c>
+      <c r="D44">
         <v>25080211080</v>
       </c>
       <c r="E44" t="s">
@@ -4980,9 +4967,9 @@
         <v>152</v>
       </c>
       <c r="C45" t="s">
-        <v>888</v>
-      </c>
-      <c r="D45" s="2">
+        <v>885</v>
+      </c>
+      <c r="D45">
         <v>25080211117</v>
       </c>
       <c r="E45" t="s">
@@ -5006,9 +4993,9 @@
         <v>155</v>
       </c>
       <c r="C46" t="s">
-        <v>889</v>
-      </c>
-      <c r="D46" s="2">
+        <v>886</v>
+      </c>
+      <c r="D46">
         <v>25080211084</v>
       </c>
       <c r="E46" t="s">
@@ -5032,9 +5019,9 @@
         <v>158</v>
       </c>
       <c r="C47" t="s">
-        <v>890</v>
-      </c>
-      <c r="D47" s="2">
+        <v>887</v>
+      </c>
+      <c r="D47">
         <v>23080241010</v>
       </c>
       <c r="E47" t="s">
@@ -5058,9 +5045,9 @@
         <v>161</v>
       </c>
       <c r="C48" t="s">
-        <v>891</v>
-      </c>
-      <c r="D48" s="2">
+        <v>888</v>
+      </c>
+      <c r="D48">
         <v>25080241079</v>
       </c>
       <c r="E48" t="s">
@@ -5084,9 +5071,9 @@
         <v>164</v>
       </c>
       <c r="C49" t="s">
-        <v>892</v>
-      </c>
-      <c r="D49" s="2">
+        <v>889</v>
+      </c>
+      <c r="D49">
         <v>25080211108</v>
       </c>
       <c r="E49" t="s">
@@ -5110,9 +5097,9 @@
         <v>167</v>
       </c>
       <c r="C50" t="s">
-        <v>893</v>
-      </c>
-      <c r="D50" s="2">
+        <v>890</v>
+      </c>
+      <c r="D50">
         <v>25080241027</v>
       </c>
       <c r="E50" t="s">
@@ -5136,9 +5123,9 @@
         <v>170</v>
       </c>
       <c r="C51" t="s">
-        <v>894</v>
-      </c>
-      <c r="D51" s="2">
+        <v>891</v>
+      </c>
+      <c r="D51">
         <v>25080211099</v>
       </c>
       <c r="E51" t="s">
@@ -5162,9 +5149,9 @@
         <v>173</v>
       </c>
       <c r="C52" t="s">
-        <v>895</v>
-      </c>
-      <c r="D52" s="2">
+        <v>892</v>
+      </c>
+      <c r="D52">
         <v>25080211064</v>
       </c>
       <c r="E52" t="s">
@@ -5188,9 +5175,9 @@
         <v>173</v>
       </c>
       <c r="C53" t="s">
-        <v>896</v>
-      </c>
-      <c r="D53" s="2">
+        <v>893</v>
+      </c>
+      <c r="D53">
         <v>25080211124</v>
       </c>
       <c r="E53" t="s">
@@ -5214,9 +5201,9 @@
         <v>179</v>
       </c>
       <c r="C54" t="s">
-        <v>897</v>
-      </c>
-      <c r="D54" s="2">
+        <v>894</v>
+      </c>
+      <c r="D54">
         <v>25080211071</v>
       </c>
       <c r="E54" t="s">
@@ -5240,9 +5227,9 @@
         <v>182</v>
       </c>
       <c r="C55" t="s">
-        <v>898</v>
-      </c>
-      <c r="D55" s="2">
+        <v>895</v>
+      </c>
+      <c r="D55">
         <v>24080241087</v>
       </c>
       <c r="E55" t="s">
@@ -5266,9 +5253,9 @@
         <v>185</v>
       </c>
       <c r="C56" t="s">
-        <v>899</v>
-      </c>
-      <c r="D56" s="2">
+        <v>896</v>
+      </c>
+      <c r="D56">
         <v>24080241067</v>
       </c>
       <c r="E56" t="s">
@@ -5292,9 +5279,9 @@
         <v>188</v>
       </c>
       <c r="C57" t="s">
-        <v>900</v>
-      </c>
-      <c r="D57" s="2">
+        <v>897</v>
+      </c>
+      <c r="D57">
         <v>25080241033</v>
       </c>
       <c r="E57" t="s">
@@ -5318,9 +5305,9 @@
         <v>192</v>
       </c>
       <c r="C58" t="s">
-        <v>901</v>
-      </c>
-      <c r="D58" s="2">
+        <v>898</v>
+      </c>
+      <c r="D58">
         <v>25080211189</v>
       </c>
       <c r="E58" t="s">
@@ -5344,9 +5331,9 @@
         <v>195</v>
       </c>
       <c r="C59" t="s">
-        <v>902</v>
-      </c>
-      <c r="D59" s="2">
+        <v>899</v>
+      </c>
+      <c r="D59">
         <v>25080211008</v>
       </c>
       <c r="E59" t="s">
@@ -5370,9 +5357,9 @@
         <v>198</v>
       </c>
       <c r="C60" t="s">
-        <v>903</v>
-      </c>
-      <c r="D60" s="2">
+        <v>900</v>
+      </c>
+      <c r="D60">
         <v>25080241071</v>
       </c>
       <c r="E60" t="s">
@@ -5396,9 +5383,9 @@
         <v>202</v>
       </c>
       <c r="C61" t="s">
-        <v>904</v>
-      </c>
-      <c r="D61" s="2">
+        <v>901</v>
+      </c>
+      <c r="D61">
         <v>25080211056</v>
       </c>
       <c r="E61" t="s">
@@ -5422,9 +5409,9 @@
         <v>205</v>
       </c>
       <c r="C62" t="s">
-        <v>905</v>
-      </c>
-      <c r="D62" s="2">
+        <v>902</v>
+      </c>
+      <c r="D62">
         <v>25080211164</v>
       </c>
       <c r="E62" t="s">
@@ -5448,9 +5435,9 @@
         <v>208</v>
       </c>
       <c r="C63" t="s">
-        <v>906</v>
-      </c>
-      <c r="D63" s="2">
+        <v>903</v>
+      </c>
+      <c r="D63">
         <v>25080211030</v>
       </c>
       <c r="E63" t="s">
@@ -5474,9 +5461,9 @@
         <v>211</v>
       </c>
       <c r="C64" t="s">
-        <v>907</v>
-      </c>
-      <c r="D64" s="2">
+        <v>904</v>
+      </c>
+      <c r="D64">
         <v>25080251075</v>
       </c>
       <c r="E64" t="s">
@@ -5500,9 +5487,9 @@
         <v>215</v>
       </c>
       <c r="C65" t="s">
-        <v>908</v>
-      </c>
-      <c r="D65" s="2">
+        <v>905</v>
+      </c>
+      <c r="D65">
         <v>25080211017</v>
       </c>
       <c r="E65" t="s">
@@ -5526,9 +5513,9 @@
         <v>218</v>
       </c>
       <c r="C66" t="s">
-        <v>909</v>
-      </c>
-      <c r="D66" s="2">
+        <v>906</v>
+      </c>
+      <c r="D66">
         <v>25080211142</v>
       </c>
       <c r="E66" t="s">
@@ -5552,9 +5539,9 @@
         <v>221</v>
       </c>
       <c r="C67" t="s">
-        <v>910</v>
-      </c>
-      <c r="D67" s="2">
+        <v>907</v>
+      </c>
+      <c r="D67">
         <v>25080211116</v>
       </c>
       <c r="E67" t="s">
@@ -5578,9 +5565,9 @@
         <v>224</v>
       </c>
       <c r="C68" t="s">
-        <v>911</v>
-      </c>
-      <c r="D68" s="2">
+        <v>908</v>
+      </c>
+      <c r="D68">
         <v>25080211131</v>
       </c>
       <c r="E68" t="s">
@@ -5604,9 +5591,9 @@
         <v>227</v>
       </c>
       <c r="C69" t="s">
-        <v>912</v>
-      </c>
-      <c r="D69" s="2">
+        <v>909</v>
+      </c>
+      <c r="D69">
         <v>25080211184</v>
       </c>
       <c r="E69" t="s">
@@ -5630,9 +5617,9 @@
         <v>229</v>
       </c>
       <c r="C70" t="s">
-        <v>913</v>
-      </c>
-      <c r="D70" s="2">
+        <v>910</v>
+      </c>
+      <c r="D70">
         <v>25080211020</v>
       </c>
       <c r="E70" t="s">
@@ -5656,9 +5643,9 @@
         <v>232</v>
       </c>
       <c r="C71" t="s">
-        <v>914</v>
-      </c>
-      <c r="D71" s="2">
+        <v>911</v>
+      </c>
+      <c r="D71">
         <v>25080211086</v>
       </c>
       <c r="E71" t="s">
@@ -5682,9 +5669,9 @@
         <v>235</v>
       </c>
       <c r="C72" t="s">
-        <v>915</v>
-      </c>
-      <c r="D72" s="2">
+        <v>912</v>
+      </c>
+      <c r="D72">
         <v>25080211200</v>
       </c>
       <c r="E72" t="s">
@@ -5708,9 +5695,9 @@
         <v>238</v>
       </c>
       <c r="C73" t="s">
-        <v>916</v>
-      </c>
-      <c r="D73" s="2">
+        <v>913</v>
+      </c>
+      <c r="D73">
         <v>25080211047</v>
       </c>
       <c r="E73" t="s">
@@ -5734,9 +5721,9 @@
         <v>241</v>
       </c>
       <c r="C74" t="s">
-        <v>917</v>
-      </c>
-      <c r="D74" s="2">
+        <v>914</v>
+      </c>
+      <c r="D74">
         <v>25080211046</v>
       </c>
       <c r="E74" t="s">
@@ -5760,9 +5747,9 @@
         <v>244</v>
       </c>
       <c r="C75" t="s">
-        <v>918</v>
-      </c>
-      <c r="D75" s="2">
+        <v>915</v>
+      </c>
+      <c r="D75">
         <v>25080211044</v>
       </c>
       <c r="E75" t="s">
@@ -5786,9 +5773,9 @@
         <v>248</v>
       </c>
       <c r="C76" t="s">
-        <v>919</v>
-      </c>
-      <c r="D76" s="2">
+        <v>916</v>
+      </c>
+      <c r="D76">
         <v>25080211163</v>
       </c>
       <c r="E76" t="s">
@@ -5812,9 +5799,9 @@
         <v>251</v>
       </c>
       <c r="C77" t="s">
-        <v>920</v>
-      </c>
-      <c r="D77" s="2">
+        <v>917</v>
+      </c>
+      <c r="D77">
         <v>25080211114</v>
       </c>
       <c r="E77" t="s">
@@ -5838,9 +5825,9 @@
         <v>254</v>
       </c>
       <c r="C78" t="s">
-        <v>921</v>
-      </c>
-      <c r="D78" s="2">
+        <v>918</v>
+      </c>
+      <c r="D78">
         <v>25080211066</v>
       </c>
       <c r="E78" t="s">
@@ -5864,9 +5851,9 @@
         <v>257</v>
       </c>
       <c r="C79" t="s">
-        <v>922</v>
-      </c>
-      <c r="D79" s="2">
+        <v>919</v>
+      </c>
+      <c r="D79">
         <v>25080211026</v>
       </c>
       <c r="E79" t="s">
@@ -5890,9 +5877,9 @@
         <v>260</v>
       </c>
       <c r="C80" t="s">
-        <v>923</v>
-      </c>
-      <c r="D80" s="2">
+        <v>920</v>
+      </c>
+      <c r="D80">
         <v>25080211147</v>
       </c>
       <c r="E80" t="s">
@@ -5916,9 +5903,9 @@
         <v>263</v>
       </c>
       <c r="C81" t="s">
-        <v>924</v>
-      </c>
-      <c r="D81" s="2">
+        <v>921</v>
+      </c>
+      <c r="D81">
         <v>25080241085</v>
       </c>
       <c r="E81" t="s">
@@ -5942,9 +5929,9 @@
         <v>266</v>
       </c>
       <c r="C82" t="s">
-        <v>925</v>
-      </c>
-      <c r="D82" s="2">
+        <v>922</v>
+      </c>
+      <c r="D82">
         <v>25080251083</v>
       </c>
       <c r="E82" t="s">
@@ -5968,9 +5955,9 @@
         <v>268</v>
       </c>
       <c r="C83" t="s">
-        <v>926</v>
-      </c>
-      <c r="D83" s="2">
+        <v>923</v>
+      </c>
+      <c r="D83">
         <v>25080211051</v>
       </c>
       <c r="E83" t="s">
@@ -5994,9 +5981,9 @@
         <v>271</v>
       </c>
       <c r="C84" t="s">
-        <v>927</v>
-      </c>
-      <c r="D84" s="2">
+        <v>924</v>
+      </c>
+      <c r="D84">
         <v>25080211077</v>
       </c>
       <c r="E84" t="s">
@@ -6020,9 +6007,9 @@
         <v>274</v>
       </c>
       <c r="C85" t="s">
-        <v>928</v>
-      </c>
-      <c r="D85" s="2">
+        <v>925</v>
+      </c>
+      <c r="D85">
         <v>25080251054</v>
       </c>
       <c r="E85" t="s">
@@ -6046,9 +6033,9 @@
         <v>274</v>
       </c>
       <c r="C86" t="s">
-        <v>929</v>
-      </c>
-      <c r="D86" s="2">
+        <v>926</v>
+      </c>
+      <c r="D86">
         <v>24080241052</v>
       </c>
       <c r="E86" t="s">
@@ -6072,9 +6059,9 @@
         <v>274</v>
       </c>
       <c r="C87" t="s">
-        <v>930</v>
-      </c>
-      <c r="D87" s="2">
+        <v>927</v>
+      </c>
+      <c r="D87">
         <v>25080211170</v>
       </c>
       <c r="E87" t="s">
@@ -6092,20 +6079,20 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>226</v>
+      </c>
+      <c r="B88" t="s">
         <v>280</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
+        <v>928</v>
+      </c>
+      <c r="D88">
+        <v>25080211132</v>
+      </c>
+      <c r="E88" t="s">
         <v>281</v>
       </c>
-      <c r="C88" t="s">
-        <v>931</v>
-      </c>
-      <c r="D88" s="2">
-        <v>25080251089</v>
-      </c>
-      <c r="E88" t="s">
-        <v>282</v>
-      </c>
       <c r="F88" t="s">
         <v>6</v>
       </c>
@@ -6113,21 +6100,21 @@
         <v>7</v>
       </c>
       <c r="H88" t="s">
-        <v>144</v>
+        <v>55</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>226</v>
+        <v>282</v>
       </c>
       <c r="B89" t="s">
         <v>283</v>
       </c>
       <c r="C89" t="s">
-        <v>932</v>
-      </c>
-      <c r="D89" s="2">
-        <v>25080211132</v>
+        <v>929</v>
+      </c>
+      <c r="D89">
+        <v>25080211098</v>
       </c>
       <c r="E89" t="s">
         <v>284</v>
@@ -6139,7 +6126,7 @@
         <v>7</v>
       </c>
       <c r="H89" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -6150,10 +6137,10 @@
         <v>286</v>
       </c>
       <c r="C90" t="s">
-        <v>933</v>
-      </c>
-      <c r="D90" s="2">
-        <v>25080211098</v>
+        <v>930</v>
+      </c>
+      <c r="D90">
+        <v>25080211178</v>
       </c>
       <c r="E90" t="s">
         <v>287</v>
@@ -6165,7 +6152,7 @@
         <v>7</v>
       </c>
       <c r="H90" t="s">
-        <v>8</v>
+        <v>144</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -6176,10 +6163,10 @@
         <v>289</v>
       </c>
       <c r="C91" t="s">
-        <v>934</v>
-      </c>
-      <c r="D91" s="2">
-        <v>25080211178</v>
+        <v>931</v>
+      </c>
+      <c r="D91">
+        <v>25080211057</v>
       </c>
       <c r="E91" t="s">
         <v>290</v>
@@ -6191,7 +6178,7 @@
         <v>7</v>
       </c>
       <c r="H91" t="s">
-        <v>144</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -6202,10 +6189,10 @@
         <v>292</v>
       </c>
       <c r="C92" t="s">
-        <v>935</v>
-      </c>
-      <c r="D92" s="2">
-        <v>25080211057</v>
+        <v>932</v>
+      </c>
+      <c r="D92">
+        <v>25080211119</v>
       </c>
       <c r="E92" t="s">
         <v>293</v>
@@ -6217,25 +6204,25 @@
         <v>7</v>
       </c>
       <c r="H92" t="s">
-        <v>16</v>
+        <v>177</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>240</v>
+      </c>
+      <c r="B93" t="s">
         <v>294</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
+        <v>933</v>
+      </c>
+      <c r="D93">
+        <v>25080211076</v>
+      </c>
+      <c r="E93" t="s">
         <v>295</v>
       </c>
-      <c r="C93" t="s">
-        <v>936</v>
-      </c>
-      <c r="D93" s="2">
-        <v>25080211119</v>
-      </c>
-      <c r="E93" t="s">
-        <v>296</v>
-      </c>
       <c r="F93" t="s">
         <v>6</v>
       </c>
@@ -6243,21 +6230,21 @@
         <v>7</v>
       </c>
       <c r="H93" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>240</v>
+        <v>296</v>
       </c>
       <c r="B94" t="s">
         <v>297</v>
       </c>
       <c r="C94" t="s">
-        <v>937</v>
-      </c>
-      <c r="D94" s="2">
-        <v>25080211076</v>
+        <v>934</v>
+      </c>
+      <c r="D94">
+        <v>25080211109</v>
       </c>
       <c r="E94" t="s">
         <v>298</v>
@@ -6269,7 +6256,7 @@
         <v>7</v>
       </c>
       <c r="H94" t="s">
-        <v>27</v>
+        <v>190</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -6280,10 +6267,10 @@
         <v>300</v>
       </c>
       <c r="C95" t="s">
-        <v>938</v>
-      </c>
-      <c r="D95" s="2">
-        <v>25080211109</v>
+        <v>935</v>
+      </c>
+      <c r="D95">
+        <v>25080211087</v>
       </c>
       <c r="E95" t="s">
         <v>301</v>
@@ -6295,7 +6282,7 @@
         <v>7</v>
       </c>
       <c r="H95" t="s">
-        <v>190</v>
+        <v>95</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -6306,10 +6293,10 @@
         <v>303</v>
       </c>
       <c r="C96" t="s">
-        <v>939</v>
-      </c>
-      <c r="D96" s="2">
-        <v>25080211087</v>
+        <v>936</v>
+      </c>
+      <c r="D96">
+        <v>25080211070</v>
       </c>
       <c r="E96" t="s">
         <v>304</v>
@@ -6321,7 +6308,7 @@
         <v>7</v>
       </c>
       <c r="H96" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -6332,10 +6319,10 @@
         <v>306</v>
       </c>
       <c r="C97" t="s">
-        <v>940</v>
-      </c>
-      <c r="D97" s="2">
-        <v>25080211070</v>
+        <v>937</v>
+      </c>
+      <c r="D97">
+        <v>25080241097</v>
       </c>
       <c r="E97" t="s">
         <v>307</v>
@@ -6347,7 +6334,7 @@
         <v>7</v>
       </c>
       <c r="H97" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -6358,10 +6345,10 @@
         <v>309</v>
       </c>
       <c r="C98" t="s">
-        <v>941</v>
-      </c>
-      <c r="D98" s="2">
-        <v>25080241097</v>
+        <v>938</v>
+      </c>
+      <c r="D98">
+        <v>25080211165</v>
       </c>
       <c r="E98" t="s">
         <v>310</v>
@@ -6373,25 +6360,25 @@
         <v>7</v>
       </c>
       <c r="H98" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>296</v>
+      </c>
+      <c r="B99" t="s">
         <v>311</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
+        <v>939</v>
+      </c>
+      <c r="D99">
+        <v>25080211038</v>
+      </c>
+      <c r="E99" t="s">
         <v>312</v>
       </c>
-      <c r="C99" t="s">
-        <v>942</v>
-      </c>
-      <c r="D99" s="2">
-        <v>25080211165</v>
-      </c>
-      <c r="E99" t="s">
-        <v>313</v>
-      </c>
       <c r="F99" t="s">
         <v>6</v>
       </c>
@@ -6399,21 +6386,21 @@
         <v>7</v>
       </c>
       <c r="H99" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="B100" t="s">
         <v>314</v>
       </c>
       <c r="C100" t="s">
-        <v>943</v>
-      </c>
-      <c r="D100" s="2">
-        <v>25080211038</v>
+        <v>940</v>
+      </c>
+      <c r="D100">
+        <v>25080211096</v>
       </c>
       <c r="E100" t="s">
         <v>315</v>
@@ -6425,7 +6412,7 @@
         <v>7</v>
       </c>
       <c r="H100" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -6436,10 +6423,10 @@
         <v>317</v>
       </c>
       <c r="C101" t="s">
-        <v>944</v>
-      </c>
-      <c r="D101" s="2">
-        <v>25080211096</v>
+        <v>941</v>
+      </c>
+      <c r="D101">
+        <v>25080211143</v>
       </c>
       <c r="E101" t="s">
         <v>318</v>
@@ -6451,7 +6438,7 @@
         <v>7</v>
       </c>
       <c r="H101" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -6462,10 +6449,10 @@
         <v>320</v>
       </c>
       <c r="C102" t="s">
-        <v>945</v>
-      </c>
-      <c r="D102" s="2">
-        <v>25080211143</v>
+        <v>942</v>
+      </c>
+      <c r="D102">
+        <v>25080211158</v>
       </c>
       <c r="E102" t="s">
         <v>321</v>
@@ -6477,7 +6464,7 @@
         <v>7</v>
       </c>
       <c r="H102" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -6488,22 +6475,22 @@
         <v>323</v>
       </c>
       <c r="C103" t="s">
-        <v>946</v>
-      </c>
-      <c r="D103" s="2">
-        <v>25080211158</v>
+        <v>943</v>
+      </c>
+      <c r="D103">
+        <v>24080211100</v>
       </c>
       <c r="E103" t="s">
         <v>324</v>
       </c>
       <c r="F103" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="G103" t="s">
         <v>7</v>
       </c>
       <c r="H103" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -6511,39 +6498,39 @@
         <v>325</v>
       </c>
       <c r="B104" t="s">
+        <v>256</v>
+      </c>
+      <c r="C104" t="s">
+        <v>944</v>
+      </c>
+      <c r="D104">
+        <v>25080211192</v>
+      </c>
+      <c r="E104" t="s">
         <v>326</v>
       </c>
-      <c r="C104" t="s">
-        <v>947</v>
-      </c>
-      <c r="D104" s="2">
-        <v>24080211100</v>
-      </c>
-      <c r="E104" t="s">
-        <v>327</v>
-      </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="G104" t="s">
         <v>7</v>
       </c>
       <c r="H104" t="s">
-        <v>35</v>
+        <v>246</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>327</v>
+      </c>
+      <c r="B105" t="s">
         <v>328</v>
       </c>
-      <c r="B105" t="s">
-        <v>256</v>
-      </c>
       <c r="C105" t="s">
-        <v>948</v>
-      </c>
-      <c r="D105" s="2">
-        <v>25080211192</v>
+        <v>945</v>
+      </c>
+      <c r="D105">
+        <v>25080211055</v>
       </c>
       <c r="E105" t="s">
         <v>329</v>
@@ -6566,10 +6553,10 @@
         <v>331</v>
       </c>
       <c r="C106" t="s">
-        <v>949</v>
-      </c>
-      <c r="D106" s="2">
-        <v>25080211055</v>
+        <v>946</v>
+      </c>
+      <c r="D106">
+        <v>24080241093</v>
       </c>
       <c r="E106" t="s">
         <v>332</v>
@@ -6581,7 +6568,7 @@
         <v>7</v>
       </c>
       <c r="H106" t="s">
-        <v>246</v>
+        <v>112</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -6592,10 +6579,10 @@
         <v>334</v>
       </c>
       <c r="C107" t="s">
-        <v>950</v>
-      </c>
-      <c r="D107" s="2">
-        <v>24080241093</v>
+        <v>947</v>
+      </c>
+      <c r="D107">
+        <v>25080211009</v>
       </c>
       <c r="E107" t="s">
         <v>335</v>
@@ -6618,10 +6605,10 @@
         <v>337</v>
       </c>
       <c r="C108" t="s">
-        <v>951</v>
-      </c>
-      <c r="D108" s="2">
-        <v>25080211009</v>
+        <v>948</v>
+      </c>
+      <c r="D108">
+        <v>25080211190</v>
       </c>
       <c r="E108" t="s">
         <v>338</v>
@@ -6633,7 +6620,7 @@
         <v>7</v>
       </c>
       <c r="H108" t="s">
-        <v>112</v>
+        <v>190</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -6644,10 +6631,10 @@
         <v>340</v>
       </c>
       <c r="C109" t="s">
-        <v>952</v>
-      </c>
-      <c r="D109" s="2">
-        <v>25080211190</v>
+        <v>949</v>
+      </c>
+      <c r="D109">
+        <v>25080211048</v>
       </c>
       <c r="E109" t="s">
         <v>341</v>
@@ -6659,7 +6646,7 @@
         <v>7</v>
       </c>
       <c r="H109" t="s">
-        <v>190</v>
+        <v>88</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -6670,10 +6657,10 @@
         <v>343</v>
       </c>
       <c r="C110" t="s">
-        <v>953</v>
-      </c>
-      <c r="D110" s="2">
-        <v>25080211048</v>
+        <v>950</v>
+      </c>
+      <c r="D110">
+        <v>24080241110</v>
       </c>
       <c r="E110" t="s">
         <v>344</v>
@@ -6685,7 +6672,7 @@
         <v>7</v>
       </c>
       <c r="H110" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -6696,10 +6683,10 @@
         <v>346</v>
       </c>
       <c r="C111" t="s">
-        <v>954</v>
-      </c>
-      <c r="D111" s="2">
-        <v>24080241110</v>
+        <v>951</v>
+      </c>
+      <c r="D111">
+        <v>25080211152</v>
       </c>
       <c r="E111" t="s">
         <v>347</v>
@@ -6711,7 +6698,7 @@
         <v>7</v>
       </c>
       <c r="H111" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -6722,10 +6709,10 @@
         <v>349</v>
       </c>
       <c r="C112" t="s">
-        <v>955</v>
-      </c>
-      <c r="D112" s="2">
-        <v>25080211152</v>
+        <v>952</v>
+      </c>
+      <c r="D112">
+        <v>25080251084</v>
       </c>
       <c r="E112" t="s">
         <v>350</v>
@@ -6737,7 +6724,7 @@
         <v>7</v>
       </c>
       <c r="H112" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -6748,10 +6735,10 @@
         <v>352</v>
       </c>
       <c r="C113" t="s">
-        <v>956</v>
-      </c>
-      <c r="D113" s="2">
-        <v>25080251084</v>
+        <v>953</v>
+      </c>
+      <c r="D113">
+        <v>25080211167</v>
       </c>
       <c r="E113" t="s">
         <v>353</v>
@@ -6763,7 +6750,7 @@
         <v>7</v>
       </c>
       <c r="H113" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -6774,10 +6761,10 @@
         <v>355</v>
       </c>
       <c r="C114" t="s">
-        <v>957</v>
-      </c>
-      <c r="D114" s="2">
-        <v>25080211167</v>
+        <v>954</v>
+      </c>
+      <c r="D114">
+        <v>25080211126</v>
       </c>
       <c r="E114" t="s">
         <v>356</v>
@@ -6800,10 +6787,10 @@
         <v>358</v>
       </c>
       <c r="C115" t="s">
-        <v>958</v>
-      </c>
-      <c r="D115" s="2">
-        <v>25080211126</v>
+        <v>955</v>
+      </c>
+      <c r="D115">
+        <v>25080211181</v>
       </c>
       <c r="E115" t="s">
         <v>359</v>
@@ -6815,7 +6802,7 @@
         <v>7</v>
       </c>
       <c r="H115" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -6826,10 +6813,10 @@
         <v>361</v>
       </c>
       <c r="C116" t="s">
-        <v>959</v>
-      </c>
-      <c r="D116" s="2">
-        <v>25080211181</v>
+        <v>956</v>
+      </c>
+      <c r="D116">
+        <v>25080241096</v>
       </c>
       <c r="E116" t="s">
         <v>362</v>
@@ -6841,25 +6828,25 @@
         <v>7</v>
       </c>
       <c r="H116" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>345</v>
+      </c>
+      <c r="B117" t="s">
         <v>363</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" t="s">
+        <v>957</v>
+      </c>
+      <c r="D117">
+        <v>25080211148</v>
+      </c>
+      <c r="E117" t="s">
         <v>364</v>
       </c>
-      <c r="C117" t="s">
-        <v>960</v>
-      </c>
-      <c r="D117" s="2">
-        <v>25080241096</v>
-      </c>
-      <c r="E117" t="s">
-        <v>365</v>
-      </c>
       <c r="F117" t="s">
         <v>6</v>
       </c>
@@ -6867,21 +6854,21 @@
         <v>7</v>
       </c>
       <c r="H117" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="B118" t="s">
         <v>366</v>
       </c>
       <c r="C118" t="s">
-        <v>961</v>
-      </c>
-      <c r="D118" s="2">
-        <v>25080211148</v>
+        <v>958</v>
+      </c>
+      <c r="D118">
+        <v>25080211161</v>
       </c>
       <c r="E118" t="s">
         <v>367</v>
@@ -6893,25 +6880,25 @@
         <v>7</v>
       </c>
       <c r="H118" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>357</v>
+      </c>
+      <c r="B119" t="s">
         <v>368</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" t="s">
+        <v>959</v>
+      </c>
+      <c r="D119">
+        <v>25080211028</v>
+      </c>
+      <c r="E119" t="s">
         <v>369</v>
       </c>
-      <c r="C119" t="s">
-        <v>962</v>
-      </c>
-      <c r="D119" s="2">
-        <v>25080211161</v>
-      </c>
-      <c r="E119" t="s">
-        <v>370</v>
-      </c>
       <c r="F119" t="s">
         <v>6</v>
       </c>
@@ -6919,21 +6906,21 @@
         <v>7</v>
       </c>
       <c r="H119" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="B120" t="s">
         <v>371</v>
       </c>
       <c r="C120" t="s">
-        <v>963</v>
-      </c>
-      <c r="D120" s="2">
-        <v>25080211028</v>
+        <v>960</v>
+      </c>
+      <c r="D120">
+        <v>25080211120</v>
       </c>
       <c r="E120" t="s">
         <v>372</v>
@@ -6945,7 +6932,7 @@
         <v>7</v>
       </c>
       <c r="H120" t="s">
-        <v>61</v>
+        <v>200</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -6956,10 +6943,10 @@
         <v>374</v>
       </c>
       <c r="C121" t="s">
-        <v>964</v>
-      </c>
-      <c r="D121" s="2">
-        <v>25080211120</v>
+        <v>961</v>
+      </c>
+      <c r="D121">
+        <v>25080211136</v>
       </c>
       <c r="E121" t="s">
         <v>375</v>
@@ -6971,7 +6958,7 @@
         <v>7</v>
       </c>
       <c r="H121" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -6982,10 +6969,10 @@
         <v>377</v>
       </c>
       <c r="C122" t="s">
-        <v>965</v>
-      </c>
-      <c r="D122" s="2">
-        <v>25080211136</v>
+        <v>962</v>
+      </c>
+      <c r="D122">
+        <v>25080211159</v>
       </c>
       <c r="E122" t="s">
         <v>378</v>
@@ -6997,7 +6984,7 @@
         <v>7</v>
       </c>
       <c r="H122" t="s">
-        <v>190</v>
+        <v>44</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -7008,10 +6995,10 @@
         <v>380</v>
       </c>
       <c r="C123" t="s">
-        <v>966</v>
-      </c>
-      <c r="D123" s="2">
-        <v>25080211159</v>
+        <v>963</v>
+      </c>
+      <c r="D123">
+        <v>23080211125</v>
       </c>
       <c r="E123" t="s">
         <v>381</v>
@@ -7023,7 +7010,7 @@
         <v>7</v>
       </c>
       <c r="H123" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -7031,17 +7018,17 @@
         <v>382</v>
       </c>
       <c r="B124" t="s">
+        <v>380</v>
+      </c>
+      <c r="C124" t="s">
+        <v>964</v>
+      </c>
+      <c r="D124">
+        <v>24080241073</v>
+      </c>
+      <c r="E124" t="s">
         <v>383</v>
       </c>
-      <c r="C124" t="s">
-        <v>967</v>
-      </c>
-      <c r="D124" s="2">
-        <v>23080211125</v>
-      </c>
-      <c r="E124" t="s">
-        <v>384</v>
-      </c>
       <c r="F124" t="s">
         <v>6</v>
       </c>
@@ -7049,21 +7036,21 @@
         <v>7</v>
       </c>
       <c r="H124" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>384</v>
+      </c>
+      <c r="B125" t="s">
         <v>385</v>
       </c>
-      <c r="B125" t="s">
-        <v>383</v>
-      </c>
       <c r="C125" t="s">
-        <v>968</v>
-      </c>
-      <c r="D125" s="2">
-        <v>24080241073</v>
+        <v>965</v>
+      </c>
+      <c r="D125">
+        <v>25080211185</v>
       </c>
       <c r="E125" t="s">
         <v>386</v>
@@ -7075,7 +7062,7 @@
         <v>7</v>
       </c>
       <c r="H125" t="s">
-        <v>40</v>
+        <v>177</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -7086,10 +7073,10 @@
         <v>388</v>
       </c>
       <c r="C126" t="s">
-        <v>969</v>
-      </c>
-      <c r="D126" s="2">
-        <v>25080211185</v>
+        <v>966</v>
+      </c>
+      <c r="D126">
+        <v>25080241012</v>
       </c>
       <c r="E126" t="s">
         <v>389</v>
@@ -7101,7 +7088,7 @@
         <v>7</v>
       </c>
       <c r="H126" t="s">
-        <v>177</v>
+        <v>71</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -7112,10 +7099,10 @@
         <v>391</v>
       </c>
       <c r="C127" t="s">
-        <v>970</v>
-      </c>
-      <c r="D127" s="2">
-        <v>25080241012</v>
+        <v>967</v>
+      </c>
+      <c r="D127">
+        <v>25080241036</v>
       </c>
       <c r="E127" t="s">
         <v>392</v>
@@ -7127,7 +7114,7 @@
         <v>7</v>
       </c>
       <c r="H127" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -7138,10 +7125,10 @@
         <v>394</v>
       </c>
       <c r="C128" t="s">
-        <v>971</v>
-      </c>
-      <c r="D128" s="2">
-        <v>25080241036</v>
+        <v>968</v>
+      </c>
+      <c r="D128">
+        <v>24080241023</v>
       </c>
       <c r="E128" t="s">
         <v>395</v>
@@ -7153,7 +7140,7 @@
         <v>7</v>
       </c>
       <c r="H128" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -7164,10 +7151,10 @@
         <v>397</v>
       </c>
       <c r="C129" t="s">
-        <v>972</v>
-      </c>
-      <c r="D129" s="2">
-        <v>24080241023</v>
+        <v>969</v>
+      </c>
+      <c r="D129">
+        <v>25080211036</v>
       </c>
       <c r="E129" t="s">
         <v>398</v>
@@ -7179,7 +7166,7 @@
         <v>7</v>
       </c>
       <c r="H129" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -7190,22 +7177,22 @@
         <v>400</v>
       </c>
       <c r="C130" t="s">
-        <v>973</v>
-      </c>
-      <c r="D130" s="2">
-        <v>25080211036</v>
+        <v>970</v>
+      </c>
+      <c r="D130">
+        <v>24080241018</v>
       </c>
       <c r="E130" t="s">
         <v>401</v>
       </c>
       <c r="F130" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="G130" t="s">
         <v>7</v>
       </c>
       <c r="H130" t="s">
-        <v>44</v>
+        <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -7216,22 +7203,22 @@
         <v>403</v>
       </c>
       <c r="C131" t="s">
-        <v>974</v>
-      </c>
-      <c r="D131" s="2">
-        <v>24080241018</v>
+        <v>971</v>
+      </c>
+      <c r="D131">
+        <v>23080211172</v>
       </c>
       <c r="E131" t="s">
         <v>404</v>
       </c>
       <c r="F131" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="G131" t="s">
         <v>7</v>
       </c>
       <c r="H131" t="s">
-        <v>129</v>
+        <v>213</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -7242,10 +7229,10 @@
         <v>406</v>
       </c>
       <c r="C132" t="s">
-        <v>975</v>
-      </c>
-      <c r="D132" s="2">
-        <v>23080211172</v>
+        <v>972</v>
+      </c>
+      <c r="D132">
+        <v>25080211049</v>
       </c>
       <c r="E132" t="s">
         <v>407</v>
@@ -7257,7 +7244,7 @@
         <v>7</v>
       </c>
       <c r="H132" t="s">
-        <v>213</v>
+        <v>20</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -7265,17 +7252,17 @@
         <v>408</v>
       </c>
       <c r="B133" t="s">
+        <v>406</v>
+      </c>
+      <c r="C133" t="s">
+        <v>973</v>
+      </c>
+      <c r="D133">
+        <v>25080211160</v>
+      </c>
+      <c r="E133" t="s">
         <v>409</v>
       </c>
-      <c r="C133" t="s">
-        <v>976</v>
-      </c>
-      <c r="D133" s="2">
-        <v>25080211049</v>
-      </c>
-      <c r="E133" t="s">
-        <v>410</v>
-      </c>
       <c r="F133" t="s">
         <v>6</v>
       </c>
@@ -7283,21 +7270,21 @@
         <v>7</v>
       </c>
       <c r="H133" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
+        <v>410</v>
+      </c>
+      <c r="B134" t="s">
         <v>411</v>
       </c>
-      <c r="B134" t="s">
-        <v>409</v>
-      </c>
       <c r="C134" t="s">
-        <v>977</v>
-      </c>
-      <c r="D134" s="2">
-        <v>25080211160</v>
+        <v>974</v>
+      </c>
+      <c r="D134">
+        <v>25080211067</v>
       </c>
       <c r="E134" t="s">
         <v>412</v>
@@ -7309,7 +7296,7 @@
         <v>7</v>
       </c>
       <c r="H134" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -7320,10 +7307,10 @@
         <v>414</v>
       </c>
       <c r="C135" t="s">
-        <v>978</v>
-      </c>
-      <c r="D135" s="2">
-        <v>25080211067</v>
+        <v>975</v>
+      </c>
+      <c r="D135">
+        <v>25080241018</v>
       </c>
       <c r="E135" t="s">
         <v>415</v>
@@ -7335,7 +7322,7 @@
         <v>7</v>
       </c>
       <c r="H135" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -7346,10 +7333,10 @@
         <v>417</v>
       </c>
       <c r="C136" t="s">
-        <v>979</v>
-      </c>
-      <c r="D136" s="2">
-        <v>25080241018</v>
+        <v>976</v>
+      </c>
+      <c r="D136">
+        <v>25080211090</v>
       </c>
       <c r="E136" t="s">
         <v>418</v>
@@ -7361,7 +7348,7 @@
         <v>7</v>
       </c>
       <c r="H136" t="s">
-        <v>12</v>
+        <v>125</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -7372,10 +7359,10 @@
         <v>420</v>
       </c>
       <c r="C137" t="s">
-        <v>980</v>
-      </c>
-      <c r="D137" s="2">
-        <v>25080211090</v>
+        <v>977</v>
+      </c>
+      <c r="D137">
+        <v>25080211088</v>
       </c>
       <c r="E137" t="s">
         <v>421</v>
@@ -7387,7 +7374,7 @@
         <v>7</v>
       </c>
       <c r="H137" t="s">
-        <v>125</v>
+        <v>16</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -7398,10 +7385,10 @@
         <v>423</v>
       </c>
       <c r="C138" t="s">
-        <v>981</v>
-      </c>
-      <c r="D138" s="2">
-        <v>25080211088</v>
+        <v>978</v>
+      </c>
+      <c r="D138">
+        <v>25080211003</v>
       </c>
       <c r="E138" t="s">
         <v>424</v>
@@ -7413,7 +7400,7 @@
         <v>7</v>
       </c>
       <c r="H138" t="s">
-        <v>16</v>
+        <v>144</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -7424,10 +7411,10 @@
         <v>426</v>
       </c>
       <c r="C139" t="s">
-        <v>982</v>
-      </c>
-      <c r="D139" s="2">
-        <v>25080211003</v>
+        <v>979</v>
+      </c>
+      <c r="D139">
+        <v>25080211061</v>
       </c>
       <c r="E139" t="s">
         <v>427</v>
@@ -7439,7 +7426,7 @@
         <v>7</v>
       </c>
       <c r="H139" t="s">
-        <v>144</v>
+        <v>213</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -7447,17 +7434,17 @@
         <v>428</v>
       </c>
       <c r="B140" t="s">
+        <v>426</v>
+      </c>
+      <c r="C140" t="s">
+        <v>980</v>
+      </c>
+      <c r="D140">
+        <v>25080211193</v>
+      </c>
+      <c r="E140" t="s">
         <v>429</v>
       </c>
-      <c r="C140" t="s">
-        <v>983</v>
-      </c>
-      <c r="D140" s="2">
-        <v>25080211061</v>
-      </c>
-      <c r="E140" t="s">
-        <v>430</v>
-      </c>
       <c r="F140" t="s">
         <v>6</v>
       </c>
@@ -7465,25 +7452,25 @@
         <v>7</v>
       </c>
       <c r="H140" t="s">
-        <v>213</v>
+        <v>27</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>62</v>
+      </c>
+      <c r="B141" t="s">
+        <v>430</v>
+      </c>
+      <c r="C141" t="s">
+        <v>981</v>
+      </c>
+      <c r="D141">
+        <v>25080211042</v>
+      </c>
+      <c r="E141" t="s">
         <v>431</v>
       </c>
-      <c r="B141" t="s">
-        <v>429</v>
-      </c>
-      <c r="C141" t="s">
-        <v>984</v>
-      </c>
-      <c r="D141" s="2">
-        <v>25080211193</v>
-      </c>
-      <c r="E141" t="s">
-        <v>432</v>
-      </c>
       <c r="F141" t="s">
         <v>6</v>
       </c>
@@ -7491,21 +7478,21 @@
         <v>7</v>
       </c>
       <c r="H141" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>62</v>
+        <v>432</v>
       </c>
       <c r="B142" t="s">
         <v>433</v>
       </c>
       <c r="C142" t="s">
-        <v>985</v>
-      </c>
-      <c r="D142" s="2">
-        <v>25080211042</v>
+        <v>982</v>
+      </c>
+      <c r="D142">
+        <v>25080251111</v>
       </c>
       <c r="E142" t="s">
         <v>434</v>
@@ -7517,25 +7504,25 @@
         <v>7</v>
       </c>
       <c r="H142" t="s">
-        <v>65</v>
+        <v>213</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
+        <v>52</v>
+      </c>
+      <c r="B143" t="s">
+        <v>433</v>
+      </c>
+      <c r="C143" t="s">
+        <v>983</v>
+      </c>
+      <c r="D143">
+        <v>25080241041</v>
+      </c>
+      <c r="E143" t="s">
         <v>435</v>
       </c>
-      <c r="B143" t="s">
-        <v>436</v>
-      </c>
-      <c r="C143" t="s">
-        <v>986</v>
-      </c>
-      <c r="D143" s="2">
-        <v>25080251111</v>
-      </c>
-      <c r="E143" t="s">
-        <v>437</v>
-      </c>
       <c r="F143" t="s">
         <v>6</v>
       </c>
@@ -7543,24 +7530,24 @@
         <v>7</v>
       </c>
       <c r="H143" t="s">
-        <v>213</v>
+        <v>129</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>52</v>
+        <v>436</v>
       </c>
       <c r="B144" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C144" t="s">
-        <v>987</v>
-      </c>
-      <c r="D144" s="2">
-        <v>25080241041</v>
+        <v>984</v>
+      </c>
+      <c r="D144">
+        <v>25080211104</v>
       </c>
       <c r="E144" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F144" t="s">
         <v>6</v>
@@ -7569,25 +7556,25 @@
         <v>7</v>
       </c>
       <c r="H144" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>438</v>
+      </c>
+      <c r="B145" t="s">
+        <v>433</v>
+      </c>
+      <c r="C145" t="s">
+        <v>985</v>
+      </c>
+      <c r="D145">
+        <v>25080251115</v>
+      </c>
+      <c r="E145" t="s">
         <v>439</v>
       </c>
-      <c r="B145" t="s">
-        <v>436</v>
-      </c>
-      <c r="C145" t="s">
-        <v>988</v>
-      </c>
-      <c r="D145" s="2">
-        <v>25080211104</v>
-      </c>
-      <c r="E145" t="s">
-        <v>440</v>
-      </c>
       <c r="F145" t="s">
         <v>6</v>
       </c>
@@ -7595,21 +7582,21 @@
         <v>7</v>
       </c>
       <c r="H145" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>440</v>
+      </c>
+      <c r="B146" t="s">
         <v>441</v>
       </c>
-      <c r="B146" t="s">
-        <v>436</v>
-      </c>
       <c r="C146" t="s">
-        <v>989</v>
-      </c>
-      <c r="D146" s="2">
-        <v>25080251115</v>
+        <v>986</v>
+      </c>
+      <c r="D146">
+        <v>25080211023</v>
       </c>
       <c r="E146" t="s">
         <v>442</v>
@@ -7621,7 +7608,7 @@
         <v>7</v>
       </c>
       <c r="H146" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -7632,10 +7619,10 @@
         <v>444</v>
       </c>
       <c r="C147" t="s">
-        <v>990</v>
-      </c>
-      <c r="D147" s="2">
-        <v>25080211023</v>
+        <v>987</v>
+      </c>
+      <c r="D147">
+        <v>25080211169</v>
       </c>
       <c r="E147" t="s">
         <v>445</v>
@@ -7647,7 +7634,7 @@
         <v>7</v>
       </c>
       <c r="H147" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -7658,10 +7645,10 @@
         <v>447</v>
       </c>
       <c r="C148" t="s">
-        <v>991</v>
-      </c>
-      <c r="D148" s="2">
-        <v>25080211169</v>
+        <v>988</v>
+      </c>
+      <c r="D148">
+        <v>25080211121</v>
       </c>
       <c r="E148" t="s">
         <v>448</v>
@@ -7673,7 +7660,7 @@
         <v>7</v>
       </c>
       <c r="H148" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -7684,10 +7671,10 @@
         <v>450</v>
       </c>
       <c r="C149" t="s">
-        <v>992</v>
-      </c>
-      <c r="D149" s="2">
-        <v>25080211121</v>
+        <v>989</v>
+      </c>
+      <c r="D149">
+        <v>25080211100</v>
       </c>
       <c r="E149" t="s">
         <v>451</v>
@@ -7699,7 +7686,7 @@
         <v>7</v>
       </c>
       <c r="H149" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -7710,10 +7697,10 @@
         <v>453</v>
       </c>
       <c r="C150" t="s">
-        <v>993</v>
-      </c>
-      <c r="D150" s="2">
-        <v>25080211100</v>
+        <v>990</v>
+      </c>
+      <c r="D150">
+        <v>25080251087</v>
       </c>
       <c r="E150" t="s">
         <v>454</v>
@@ -7725,7 +7712,7 @@
         <v>7</v>
       </c>
       <c r="H150" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -7736,10 +7723,10 @@
         <v>456</v>
       </c>
       <c r="C151" t="s">
-        <v>994</v>
-      </c>
-      <c r="D151" s="2">
-        <v>25080251087</v>
+        <v>991</v>
+      </c>
+      <c r="D151">
+        <v>25080211171</v>
       </c>
       <c r="E151" t="s">
         <v>457</v>
@@ -7751,7 +7738,7 @@
         <v>7</v>
       </c>
       <c r="H151" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -7759,17 +7746,17 @@
         <v>458</v>
       </c>
       <c r="B152" t="s">
+        <v>456</v>
+      </c>
+      <c r="C152" t="s">
+        <v>992</v>
+      </c>
+      <c r="D152">
+        <v>25080211175</v>
+      </c>
+      <c r="E152" t="s">
         <v>459</v>
       </c>
-      <c r="C152" t="s">
-        <v>995</v>
-      </c>
-      <c r="D152" s="2">
-        <v>25080211171</v>
-      </c>
-      <c r="E152" t="s">
-        <v>460</v>
-      </c>
       <c r="F152" t="s">
         <v>6</v>
       </c>
@@ -7777,21 +7764,21 @@
         <v>7</v>
       </c>
       <c r="H152" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
+        <v>460</v>
+      </c>
+      <c r="B153" t="s">
         <v>461</v>
       </c>
-      <c r="B153" t="s">
-        <v>459</v>
-      </c>
       <c r="C153" t="s">
-        <v>996</v>
-      </c>
-      <c r="D153" s="2">
-        <v>25080211175</v>
+        <v>993</v>
+      </c>
+      <c r="D153">
+        <v>25080211187</v>
       </c>
       <c r="E153" t="s">
         <v>462</v>
@@ -7803,7 +7790,7 @@
         <v>7</v>
       </c>
       <c r="H153" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -7814,10 +7801,10 @@
         <v>464</v>
       </c>
       <c r="C154" t="s">
-        <v>997</v>
-      </c>
-      <c r="D154" s="2">
-        <v>25080211187</v>
+        <v>994</v>
+      </c>
+      <c r="D154">
+        <v>25080211025</v>
       </c>
       <c r="E154" t="s">
         <v>465</v>
@@ -7829,7 +7816,7 @@
         <v>7</v>
       </c>
       <c r="H154" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -7840,10 +7827,10 @@
         <v>467</v>
       </c>
       <c r="C155" t="s">
-        <v>998</v>
-      </c>
-      <c r="D155" s="2">
-        <v>25080211025</v>
+        <v>995</v>
+      </c>
+      <c r="D155">
+        <v>25080241048</v>
       </c>
       <c r="E155" t="s">
         <v>468</v>
@@ -7855,7 +7842,7 @@
         <v>7</v>
       </c>
       <c r="H155" t="s">
-        <v>88</v>
+        <v>246</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -7866,10 +7853,10 @@
         <v>470</v>
       </c>
       <c r="C156" t="s">
-        <v>999</v>
-      </c>
-      <c r="D156" s="2">
-        <v>25080241048</v>
+        <v>996</v>
+      </c>
+      <c r="D156">
+        <v>25080211063</v>
       </c>
       <c r="E156" t="s">
         <v>471</v>
@@ -7881,25 +7868,25 @@
         <v>7</v>
       </c>
       <c r="H156" t="s">
-        <v>246</v>
+        <v>55</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>408</v>
+      </c>
+      <c r="B157" t="s">
         <v>472</v>
       </c>
-      <c r="B157" t="s">
+      <c r="C157" t="s">
+        <v>997</v>
+      </c>
+      <c r="D157">
+        <v>25080211059</v>
+      </c>
+      <c r="E157" t="s">
         <v>473</v>
       </c>
-      <c r="C157" t="s">
-        <v>1000</v>
-      </c>
-      <c r="D157" s="2">
-        <v>25080211063</v>
-      </c>
-      <c r="E157" t="s">
-        <v>474</v>
-      </c>
       <c r="F157" t="s">
         <v>6</v>
       </c>
@@ -7907,25 +7894,25 @@
         <v>7</v>
       </c>
       <c r="H157" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>411</v>
+        <v>474</v>
       </c>
       <c r="B158" t="s">
+        <v>472</v>
+      </c>
+      <c r="C158" t="s">
+        <v>998</v>
+      </c>
+      <c r="D158">
+        <v>25080211153</v>
+      </c>
+      <c r="E158" t="s">
         <v>475</v>
       </c>
-      <c r="C158" t="s">
-        <v>1001</v>
-      </c>
-      <c r="D158" s="2">
-        <v>25080211059</v>
-      </c>
-      <c r="E158" t="s">
-        <v>476</v>
-      </c>
       <c r="F158" t="s">
         <v>6</v>
       </c>
@@ -7933,24 +7920,24 @@
         <v>7</v>
       </c>
       <c r="H158" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>477</v>
+        <v>296</v>
       </c>
       <c r="B159" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C159" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D159" s="2">
-        <v>25080211153</v>
+        <v>999</v>
+      </c>
+      <c r="D159">
+        <v>25080211032</v>
       </c>
       <c r="E159" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F159" t="s">
         <v>6</v>
@@ -7959,21 +7946,21 @@
         <v>7</v>
       </c>
       <c r="H159" t="s">
-        <v>55</v>
+        <v>129</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>299</v>
+        <v>477</v>
       </c>
       <c r="B160" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="C160" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D160" s="2">
-        <v>25080211032</v>
+        <v>1000</v>
+      </c>
+      <c r="D160">
+        <v>25080251068</v>
       </c>
       <c r="E160" t="s">
         <v>479</v>
@@ -7985,7 +7972,7 @@
         <v>7</v>
       </c>
       <c r="H160" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -7996,10 +7983,10 @@
         <v>481</v>
       </c>
       <c r="C161" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D161" s="2">
-        <v>25080251068</v>
+        <v>1001</v>
+      </c>
+      <c r="D161">
+        <v>21080241071</v>
       </c>
       <c r="E161" t="s">
         <v>482</v>
@@ -8011,7 +7998,7 @@
         <v>7</v>
       </c>
       <c r="H161" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -8022,10 +8009,10 @@
         <v>484</v>
       </c>
       <c r="C162" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D162" s="2">
-        <v>21080241071</v>
+        <v>1002</v>
+      </c>
+      <c r="D162">
+        <v>25080211043</v>
       </c>
       <c r="E162" t="s">
         <v>485</v>
@@ -8037,7 +8024,7 @@
         <v>7</v>
       </c>
       <c r="H162" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -8048,10 +8035,10 @@
         <v>487</v>
       </c>
       <c r="C163" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D163" s="2">
-        <v>25080211043</v>
+        <v>1003</v>
+      </c>
+      <c r="D163">
+        <v>25080241017</v>
       </c>
       <c r="E163" t="s">
         <v>488</v>
@@ -8063,7 +8050,7 @@
         <v>7</v>
       </c>
       <c r="H163" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
@@ -8074,10 +8061,10 @@
         <v>490</v>
       </c>
       <c r="C164" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D164" s="2">
-        <v>25080241017</v>
+        <v>1004</v>
+      </c>
+      <c r="D164">
+        <v>25080241039</v>
       </c>
       <c r="E164" t="s">
         <v>491</v>
@@ -8089,25 +8076,25 @@
         <v>7</v>
       </c>
       <c r="H164" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
+        <v>296</v>
+      </c>
+      <c r="B165" t="s">
+        <v>490</v>
+      </c>
+      <c r="C165" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D165">
+        <v>25080211145</v>
+      </c>
+      <c r="E165" t="s">
         <v>492</v>
       </c>
-      <c r="B165" t="s">
-        <v>493</v>
-      </c>
-      <c r="C165" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D165" s="2">
-        <v>25080241039</v>
-      </c>
-      <c r="E165" t="s">
-        <v>494</v>
-      </c>
       <c r="F165" t="s">
         <v>6</v>
       </c>
@@ -8115,21 +8102,21 @@
         <v>7</v>
       </c>
       <c r="H165" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>299</v>
+        <v>493</v>
       </c>
       <c r="B166" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C166" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D166" s="2">
-        <v>25080211145</v>
+        <v>1006</v>
+      </c>
+      <c r="D166">
+        <v>25080211138</v>
       </c>
       <c r="E166" t="s">
         <v>495</v>
@@ -8141,7 +8128,7 @@
         <v>7</v>
       </c>
       <c r="H166" t="s">
-        <v>20</v>
+        <v>246</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
@@ -8152,10 +8139,10 @@
         <v>497</v>
       </c>
       <c r="C167" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D167" s="2">
-        <v>25080211138</v>
+        <v>1007</v>
+      </c>
+      <c r="D167">
+        <v>25080211052</v>
       </c>
       <c r="E167" t="s">
         <v>498</v>
@@ -8167,7 +8154,7 @@
         <v>7</v>
       </c>
       <c r="H167" t="s">
-        <v>246</v>
+        <v>55</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
@@ -8178,10 +8165,10 @@
         <v>500</v>
       </c>
       <c r="C168" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D168" s="2">
-        <v>25080211052</v>
+        <v>1008</v>
+      </c>
+      <c r="D168">
+        <v>25080211188</v>
       </c>
       <c r="E168" t="s">
         <v>501</v>
@@ -8193,7 +8180,7 @@
         <v>7</v>
       </c>
       <c r="H168" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
@@ -8204,10 +8191,10 @@
         <v>503</v>
       </c>
       <c r="C169" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D169" s="2">
-        <v>25080211188</v>
+        <v>1009</v>
+      </c>
+      <c r="D169">
+        <v>25080211034</v>
       </c>
       <c r="E169" t="s">
         <v>504</v>
@@ -8219,7 +8206,7 @@
         <v>7</v>
       </c>
       <c r="H169" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -8230,10 +8217,10 @@
         <v>506</v>
       </c>
       <c r="C170" t="s">
-        <v>1013</v>
-      </c>
-      <c r="D170" s="2">
-        <v>25080211034</v>
+        <v>1010</v>
+      </c>
+      <c r="D170">
+        <v>25080211191</v>
       </c>
       <c r="E170" t="s">
         <v>507</v>
@@ -8245,7 +8232,7 @@
         <v>7</v>
       </c>
       <c r="H170" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
@@ -8256,10 +8243,10 @@
         <v>509</v>
       </c>
       <c r="C171" t="s">
-        <v>1014</v>
-      </c>
-      <c r="D171" s="2">
-        <v>25080211191</v>
+        <v>1011</v>
+      </c>
+      <c r="D171">
+        <v>25080211133</v>
       </c>
       <c r="E171" t="s">
         <v>510</v>
@@ -8271,7 +8258,7 @@
         <v>7</v>
       </c>
       <c r="H171" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
@@ -8282,10 +8269,10 @@
         <v>512</v>
       </c>
       <c r="C172" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D172" s="2">
-        <v>25080211133</v>
+        <v>1012</v>
+      </c>
+      <c r="D172">
+        <v>25080211106</v>
       </c>
       <c r="E172" t="s">
         <v>513</v>
@@ -8297,7 +8284,7 @@
         <v>7</v>
       </c>
       <c r="H172" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
@@ -8308,10 +8295,10 @@
         <v>515</v>
       </c>
       <c r="C173" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D173" s="2">
-        <v>25080211106</v>
+        <v>1013</v>
+      </c>
+      <c r="D173">
+        <v>25080251067</v>
       </c>
       <c r="E173" t="s">
         <v>516</v>
@@ -8323,25 +8310,25 @@
         <v>7</v>
       </c>
       <c r="H173" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>428</v>
+      </c>
+      <c r="B174" t="s">
         <v>517</v>
       </c>
-      <c r="B174" t="s">
+      <c r="C174" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D174">
+        <v>25080211092</v>
+      </c>
+      <c r="E174" t="s">
         <v>518</v>
       </c>
-      <c r="C174" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D174" s="2">
-        <v>25080251067</v>
-      </c>
-      <c r="E174" t="s">
-        <v>519</v>
-      </c>
       <c r="F174" t="s">
         <v>6</v>
       </c>
@@ -8349,21 +8336,21 @@
         <v>7</v>
       </c>
       <c r="H174" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>431</v>
+        <v>519</v>
       </c>
       <c r="B175" t="s">
         <v>520</v>
       </c>
       <c r="C175" t="s">
-        <v>1018</v>
-      </c>
-      <c r="D175" s="2">
-        <v>25080211092</v>
+        <v>1015</v>
+      </c>
+      <c r="D175">
+        <v>25080211082</v>
       </c>
       <c r="E175" t="s">
         <v>521</v>
@@ -8375,25 +8362,25 @@
         <v>7</v>
       </c>
       <c r="H175" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>240</v>
+      </c>
+      <c r="B176" t="s">
         <v>522</v>
       </c>
-      <c r="B176" t="s">
+      <c r="C176" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D176">
+        <v>25080211013</v>
+      </c>
+      <c r="E176" t="s">
         <v>523</v>
       </c>
-      <c r="C176" t="s">
-        <v>1019</v>
-      </c>
-      <c r="D176" s="2">
-        <v>25080211082</v>
-      </c>
-      <c r="E176" t="s">
-        <v>524</v>
-      </c>
       <c r="F176" t="s">
         <v>6</v>
       </c>
@@ -8401,21 +8388,21 @@
         <v>7</v>
       </c>
       <c r="H176" t="s">
-        <v>35</v>
+        <v>129</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>240</v>
+        <v>524</v>
       </c>
       <c r="B177" t="s">
         <v>525</v>
       </c>
       <c r="C177" t="s">
-        <v>1020</v>
-      </c>
-      <c r="D177" s="2">
-        <v>25080211013</v>
+        <v>1017</v>
+      </c>
+      <c r="D177">
+        <v>25080211014</v>
       </c>
       <c r="E177" t="s">
         <v>526</v>
@@ -8427,25 +8414,25 @@
         <v>7</v>
       </c>
       <c r="H177" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>226</v>
+      </c>
+      <c r="B178" t="s">
         <v>527</v>
       </c>
-      <c r="B178" t="s">
+      <c r="C178" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D178">
+        <v>25080211122</v>
+      </c>
+      <c r="E178" t="s">
         <v>528</v>
       </c>
-      <c r="C178" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D178" s="2">
-        <v>25080211014</v>
-      </c>
-      <c r="E178" t="s">
-        <v>529</v>
-      </c>
       <c r="F178" t="s">
         <v>6</v>
       </c>
@@ -8453,21 +8440,21 @@
         <v>7</v>
       </c>
       <c r="H178" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>226</v>
+        <v>529</v>
       </c>
       <c r="B179" t="s">
         <v>530</v>
       </c>
       <c r="C179" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D179" s="2">
-        <v>25080211122</v>
+        <v>1019</v>
+      </c>
+      <c r="D179">
+        <v>25080241093</v>
       </c>
       <c r="E179" t="s">
         <v>531</v>
@@ -8479,7 +8466,7 @@
         <v>7</v>
       </c>
       <c r="H179" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -8490,10 +8477,10 @@
         <v>533</v>
       </c>
       <c r="C180" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D180" s="2">
-        <v>25080241093</v>
+        <v>1020</v>
+      </c>
+      <c r="D180">
+        <v>24080241104</v>
       </c>
       <c r="E180" t="s">
         <v>534</v>
@@ -8505,7 +8492,7 @@
         <v>7</v>
       </c>
       <c r="H180" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -8516,10 +8503,10 @@
         <v>536</v>
       </c>
       <c r="C181" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D181" s="2">
-        <v>24080241104</v>
+        <v>1021</v>
+      </c>
+      <c r="D181">
+        <v>25080211095</v>
       </c>
       <c r="E181" t="s">
         <v>537</v>
@@ -8531,7 +8518,7 @@
         <v>7</v>
       </c>
       <c r="H181" t="s">
-        <v>12</v>
+        <v>200</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -8542,10 +8529,10 @@
         <v>539</v>
       </c>
       <c r="C182" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D182" s="2">
-        <v>25080211095</v>
+        <v>1022</v>
+      </c>
+      <c r="D182">
+        <v>24080241106</v>
       </c>
       <c r="E182" t="s">
         <v>540</v>
@@ -8557,7 +8544,7 @@
         <v>7</v>
       </c>
       <c r="H182" t="s">
-        <v>200</v>
+        <v>51</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -8568,10 +8555,10 @@
         <v>542</v>
       </c>
       <c r="C183" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D183" s="2">
-        <v>24080241106</v>
+        <v>1023</v>
+      </c>
+      <c r="D183">
+        <v>25080241022</v>
       </c>
       <c r="E183" t="s">
         <v>543</v>
@@ -8583,7 +8570,7 @@
         <v>7</v>
       </c>
       <c r="H183" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
@@ -8594,10 +8581,10 @@
         <v>545</v>
       </c>
       <c r="C184" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D184" s="2">
-        <v>25080241022</v>
+        <v>1024</v>
+      </c>
+      <c r="D184">
+        <v>24080241091</v>
       </c>
       <c r="E184" t="s">
         <v>546</v>
@@ -8609,7 +8596,7 @@
         <v>7</v>
       </c>
       <c r="H184" t="s">
-        <v>78</v>
+        <v>177</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
@@ -8620,10 +8607,10 @@
         <v>548</v>
       </c>
       <c r="C185" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D185" s="2">
-        <v>24080241091</v>
+        <v>1025</v>
+      </c>
+      <c r="D185">
+        <v>25080211128</v>
       </c>
       <c r="E185" t="s">
         <v>549</v>
@@ -8635,7 +8622,7 @@
         <v>7</v>
       </c>
       <c r="H185" t="s">
-        <v>177</v>
+        <v>125</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
@@ -8646,10 +8633,10 @@
         <v>551</v>
       </c>
       <c r="C186" t="s">
-        <v>1029</v>
-      </c>
-      <c r="D186" s="2">
-        <v>25080211128</v>
+        <v>1026</v>
+      </c>
+      <c r="D186">
+        <v>25080241045</v>
       </c>
       <c r="E186" t="s">
         <v>552</v>
@@ -8661,7 +8648,7 @@
         <v>7</v>
       </c>
       <c r="H186" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
@@ -8672,10 +8659,10 @@
         <v>554</v>
       </c>
       <c r="C187" t="s">
-        <v>1030</v>
-      </c>
-      <c r="D187" s="2">
-        <v>25080241045</v>
+        <v>1027</v>
+      </c>
+      <c r="D187">
+        <v>25080241046</v>
       </c>
       <c r="E187" t="s">
         <v>555</v>
@@ -8687,7 +8674,7 @@
         <v>7</v>
       </c>
       <c r="H187" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
@@ -8698,10 +8685,10 @@
         <v>557</v>
       </c>
       <c r="C188" t="s">
-        <v>1031</v>
-      </c>
-      <c r="D188" s="2">
-        <v>25080241046</v>
+        <v>1028</v>
+      </c>
+      <c r="D188">
+        <v>24080241046</v>
       </c>
       <c r="E188" t="s">
         <v>558</v>
@@ -8713,7 +8700,7 @@
         <v>7</v>
       </c>
       <c r="H188" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
@@ -8724,10 +8711,10 @@
         <v>560</v>
       </c>
       <c r="C189" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D189" s="2">
-        <v>24080241046</v>
+        <v>1029</v>
+      </c>
+      <c r="D189">
+        <v>25080211093</v>
       </c>
       <c r="E189" t="s">
         <v>561</v>
@@ -8739,7 +8726,7 @@
         <v>7</v>
       </c>
       <c r="H189" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
@@ -8750,10 +8737,10 @@
         <v>563</v>
       </c>
       <c r="C190" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D190" s="2">
-        <v>25080211093</v>
+        <v>1030</v>
+      </c>
+      <c r="D190">
+        <v>24080241107</v>
       </c>
       <c r="E190" t="s">
         <v>564</v>
@@ -8765,7 +8752,7 @@
         <v>7</v>
       </c>
       <c r="H190" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
@@ -8776,10 +8763,10 @@
         <v>566</v>
       </c>
       <c r="C191" t="s">
-        <v>1034</v>
-      </c>
-      <c r="D191" s="2">
-        <v>24080241107</v>
+        <v>1031</v>
+      </c>
+      <c r="D191">
+        <v>25080211079</v>
       </c>
       <c r="E191" t="s">
         <v>567</v>
@@ -8791,7 +8778,7 @@
         <v>7</v>
       </c>
       <c r="H191" t="s">
-        <v>20</v>
+        <v>190</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
@@ -8802,10 +8789,10 @@
         <v>569</v>
       </c>
       <c r="C192" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D192" s="2">
-        <v>25080211079</v>
+        <v>1032</v>
+      </c>
+      <c r="D192">
+        <v>25080241028</v>
       </c>
       <c r="E192" t="s">
         <v>570</v>
@@ -8817,7 +8804,7 @@
         <v>7</v>
       </c>
       <c r="H192" t="s">
-        <v>190</v>
+        <v>61</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
@@ -8828,10 +8815,10 @@
         <v>572</v>
       </c>
       <c r="C193" t="s">
-        <v>1036</v>
-      </c>
-      <c r="D193" s="2">
-        <v>25080241028</v>
+        <v>1033</v>
+      </c>
+      <c r="D193">
+        <v>25080211040</v>
       </c>
       <c r="E193" t="s">
         <v>573</v>
@@ -8843,7 +8830,7 @@
         <v>7</v>
       </c>
       <c r="H193" t="s">
-        <v>61</v>
+        <v>144</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
@@ -8854,10 +8841,10 @@
         <v>575</v>
       </c>
       <c r="C194" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D194" s="2">
-        <v>25080211040</v>
+        <v>1034</v>
+      </c>
+      <c r="D194">
+        <v>25080211006</v>
       </c>
       <c r="E194" t="s">
         <v>576</v>
@@ -8869,7 +8856,7 @@
         <v>7</v>
       </c>
       <c r="H194" t="s">
-        <v>144</v>
+        <v>200</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
@@ -8880,10 +8867,10 @@
         <v>578</v>
       </c>
       <c r="C195" t="s">
-        <v>1038</v>
-      </c>
-      <c r="D195" s="2">
-        <v>25080211006</v>
+        <v>1035</v>
+      </c>
+      <c r="D195">
+        <v>25080211069</v>
       </c>
       <c r="E195" t="s">
         <v>579</v>
@@ -8895,7 +8882,7 @@
         <v>7</v>
       </c>
       <c r="H195" t="s">
-        <v>200</v>
+        <v>58</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
@@ -8906,10 +8893,10 @@
         <v>581</v>
       </c>
       <c r="C196" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D196" s="2">
-        <v>25080211069</v>
+        <v>1036</v>
+      </c>
+      <c r="D196">
+        <v>25080211083</v>
       </c>
       <c r="E196" t="s">
         <v>582</v>
@@ -8921,25 +8908,25 @@
         <v>7</v>
       </c>
       <c r="H196" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
+        <v>373</v>
+      </c>
+      <c r="B197" t="s">
         <v>583</v>
       </c>
-      <c r="B197" t="s">
+      <c r="C197" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D197">
+        <v>25080211103</v>
+      </c>
+      <c r="E197" t="s">
         <v>584</v>
       </c>
-      <c r="C197" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D197" s="2">
-        <v>25080211083</v>
-      </c>
-      <c r="E197" t="s">
-        <v>585</v>
-      </c>
       <c r="F197" t="s">
         <v>6</v>
       </c>
@@ -8947,25 +8934,25 @@
         <v>7</v>
       </c>
       <c r="H197" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="B198" t="s">
+        <v>585</v>
+      </c>
+      <c r="C198" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D198">
+        <v>25080211102</v>
+      </c>
+      <c r="E198" t="s">
         <v>586</v>
       </c>
-      <c r="C198" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D198" s="2">
-        <v>25080211103</v>
-      </c>
-      <c r="E198" t="s">
-        <v>587</v>
-      </c>
       <c r="F198" t="s">
         <v>6</v>
       </c>
@@ -8973,21 +8960,21 @@
         <v>7</v>
       </c>
       <c r="H198" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>357</v>
+        <v>587</v>
       </c>
       <c r="B199" t="s">
         <v>588</v>
       </c>
       <c r="C199" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D199" s="2">
-        <v>25080211102</v>
+        <v>1039</v>
+      </c>
+      <c r="D199">
+        <v>25080211019</v>
       </c>
       <c r="E199" t="s">
         <v>589</v>
@@ -8999,7 +8986,7 @@
         <v>7</v>
       </c>
       <c r="H199" t="s">
-        <v>35</v>
+        <v>213</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
@@ -9007,17 +8994,17 @@
         <v>590</v>
       </c>
       <c r="B200" t="s">
+        <v>588</v>
+      </c>
+      <c r="C200" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D200">
+        <v>25080211182</v>
+      </c>
+      <c r="E200" t="s">
         <v>591</v>
       </c>
-      <c r="C200" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D200" s="2">
-        <v>25080211019</v>
-      </c>
-      <c r="E200" t="s">
-        <v>592</v>
-      </c>
       <c r="F200" t="s">
         <v>6</v>
       </c>
@@ -9025,21 +9012,21 @@
         <v>7</v>
       </c>
       <c r="H200" t="s">
-        <v>213</v>
+        <v>16</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
+        <v>592</v>
+      </c>
+      <c r="B201" t="s">
         <v>593</v>
       </c>
-      <c r="B201" t="s">
-        <v>591</v>
-      </c>
       <c r="C201" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D201" s="2">
-        <v>25080211182</v>
+        <v>1041</v>
+      </c>
+      <c r="D201">
+        <v>25080211054</v>
       </c>
       <c r="E201" t="s">
         <v>594</v>
@@ -9051,7 +9038,7 @@
         <v>7</v>
       </c>
       <c r="H201" t="s">
-        <v>16</v>
+        <v>246</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
@@ -9062,10 +9049,10 @@
         <v>596</v>
       </c>
       <c r="C202" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D202" s="2">
-        <v>25080211054</v>
+        <v>1042</v>
+      </c>
+      <c r="D202">
+        <v>25080211151</v>
       </c>
       <c r="E202" t="s">
         <v>597</v>
@@ -9077,7 +9064,7 @@
         <v>7</v>
       </c>
       <c r="H202" t="s">
-        <v>246</v>
+        <v>8</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
@@ -9085,17 +9072,17 @@
         <v>598</v>
       </c>
       <c r="B203" t="s">
+        <v>596</v>
+      </c>
+      <c r="C203" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D203">
+        <v>25080211179</v>
+      </c>
+      <c r="E203" t="s">
         <v>599</v>
       </c>
-      <c r="C203" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D203" s="2">
-        <v>25080211151</v>
-      </c>
-      <c r="E203" t="s">
-        <v>600</v>
-      </c>
       <c r="F203" t="s">
         <v>6</v>
       </c>
@@ -9103,21 +9090,21 @@
         <v>7</v>
       </c>
       <c r="H203" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
+        <v>600</v>
+      </c>
+      <c r="B204" t="s">
         <v>601</v>
       </c>
-      <c r="B204" t="s">
-        <v>599</v>
-      </c>
       <c r="C204" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D204" s="2">
-        <v>25080211179</v>
+        <v>1044</v>
+      </c>
+      <c r="D204">
+        <v>25080211177</v>
       </c>
       <c r="E204" t="s">
         <v>602</v>
@@ -9129,7 +9116,7 @@
         <v>7</v>
       </c>
       <c r="H204" t="s">
-        <v>48</v>
+        <v>177</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
@@ -9137,17 +9124,17 @@
         <v>603</v>
       </c>
       <c r="B205" t="s">
+        <v>601</v>
+      </c>
+      <c r="C205" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D205">
+        <v>25080211134</v>
+      </c>
+      <c r="E205" t="s">
         <v>604</v>
       </c>
-      <c r="C205" t="s">
-        <v>1048</v>
-      </c>
-      <c r="D205" s="2">
-        <v>25080211177</v>
-      </c>
-      <c r="E205" t="s">
-        <v>605</v>
-      </c>
       <c r="F205" t="s">
         <v>6</v>
       </c>
@@ -9155,25 +9142,25 @@
         <v>7</v>
       </c>
       <c r="H205" t="s">
-        <v>177</v>
+        <v>246</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
+        <v>605</v>
+      </c>
+      <c r="B206" t="s">
+        <v>601</v>
+      </c>
+      <c r="C206" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D206">
+        <v>25080211001</v>
+      </c>
+      <c r="E206" t="s">
         <v>606</v>
       </c>
-      <c r="B206" t="s">
-        <v>604</v>
-      </c>
-      <c r="C206" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D206" s="2">
-        <v>25080211134</v>
-      </c>
-      <c r="E206" t="s">
-        <v>607</v>
-      </c>
       <c r="F206" t="s">
         <v>6</v>
       </c>
@@ -9181,21 +9168,21 @@
         <v>7</v>
       </c>
       <c r="H206" t="s">
-        <v>246</v>
+        <v>31</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
+        <v>607</v>
+      </c>
+      <c r="B207" t="s">
         <v>608</v>
       </c>
-      <c r="B207" t="s">
-        <v>604</v>
-      </c>
       <c r="C207" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D207" s="2">
-        <v>25080211001</v>
+        <v>1047</v>
+      </c>
+      <c r="D207">
+        <v>25080211125</v>
       </c>
       <c r="E207" t="s">
         <v>609</v>
@@ -9207,7 +9194,7 @@
         <v>7</v>
       </c>
       <c r="H207" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
@@ -9218,10 +9205,10 @@
         <v>611</v>
       </c>
       <c r="C208" t="s">
-        <v>1051</v>
-      </c>
-      <c r="D208" s="2">
-        <v>25080211125</v>
+        <v>1048</v>
+      </c>
+      <c r="D208">
+        <v>25080211111</v>
       </c>
       <c r="E208" t="s">
         <v>612</v>
@@ -9233,7 +9220,7 @@
         <v>7</v>
       </c>
       <c r="H208" t="s">
-        <v>20</v>
+        <v>213</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -9241,17 +9228,17 @@
         <v>613</v>
       </c>
       <c r="B209" t="s">
+        <v>611</v>
+      </c>
+      <c r="C209" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D209">
+        <v>25080211150</v>
+      </c>
+      <c r="E209" t="s">
         <v>614</v>
       </c>
-      <c r="C209" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D209" s="2">
-        <v>25080211111</v>
-      </c>
-      <c r="E209" t="s">
-        <v>615</v>
-      </c>
       <c r="F209" t="s">
         <v>6</v>
       </c>
@@ -9259,21 +9246,21 @@
         <v>7</v>
       </c>
       <c r="H209" t="s">
-        <v>213</v>
+        <v>61</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
+        <v>615</v>
+      </c>
+      <c r="B210" t="s">
         <v>616</v>
       </c>
-      <c r="B210" t="s">
-        <v>614</v>
-      </c>
       <c r="C210" t="s">
-        <v>1053</v>
-      </c>
-      <c r="D210" s="2">
-        <v>25080211150</v>
+        <v>1050</v>
+      </c>
+      <c r="D210">
+        <v>25080211065</v>
       </c>
       <c r="E210" t="s">
         <v>617</v>
@@ -9285,7 +9272,7 @@
         <v>7</v>
       </c>
       <c r="H210" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
@@ -9296,10 +9283,10 @@
         <v>619</v>
       </c>
       <c r="C211" t="s">
-        <v>1054</v>
-      </c>
-      <c r="D211" s="2">
-        <v>25080211065</v>
+        <v>1051</v>
+      </c>
+      <c r="D211">
+        <v>25080211027</v>
       </c>
       <c r="E211" t="s">
         <v>620</v>
@@ -9311,7 +9298,7 @@
         <v>7</v>
       </c>
       <c r="H211" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
@@ -9322,10 +9309,10 @@
         <v>622</v>
       </c>
       <c r="C212" t="s">
-        <v>1055</v>
-      </c>
-      <c r="D212" s="2">
-        <v>25080211027</v>
+        <v>1052</v>
+      </c>
+      <c r="D212">
+        <v>25080211062</v>
       </c>
       <c r="E212" t="s">
         <v>623</v>
@@ -9337,7 +9324,7 @@
         <v>7</v>
       </c>
       <c r="H212" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
@@ -9348,10 +9335,10 @@
         <v>625</v>
       </c>
       <c r="C213" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D213" s="2">
-        <v>25080211062</v>
+        <v>1053</v>
+      </c>
+      <c r="D213">
+        <v>25080211130</v>
       </c>
       <c r="E213" t="s">
         <v>626</v>
@@ -9363,7 +9350,7 @@
         <v>7</v>
       </c>
       <c r="H213" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
@@ -9374,10 +9361,10 @@
         <v>628</v>
       </c>
       <c r="C214" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D214" s="2">
-        <v>25080211130</v>
+        <v>1054</v>
+      </c>
+      <c r="D214">
+        <v>25080211135</v>
       </c>
       <c r="E214" t="s">
         <v>629</v>
@@ -9389,7 +9376,7 @@
         <v>7</v>
       </c>
       <c r="H214" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
@@ -9397,17 +9384,17 @@
         <v>630</v>
       </c>
       <c r="B215" t="s">
+        <v>628</v>
+      </c>
+      <c r="C215" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D215">
+        <v>25080211198</v>
+      </c>
+      <c r="E215" t="s">
         <v>631</v>
       </c>
-      <c r="C215" t="s">
-        <v>1058</v>
-      </c>
-      <c r="D215" s="2">
-        <v>25080211135</v>
-      </c>
-      <c r="E215" t="s">
-        <v>632</v>
-      </c>
       <c r="F215" t="s">
         <v>6</v>
       </c>
@@ -9415,25 +9402,25 @@
         <v>7</v>
       </c>
       <c r="H215" t="s">
-        <v>12</v>
+        <v>246</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
+        <v>632</v>
+      </c>
+      <c r="B216" t="s">
+        <v>565</v>
+      </c>
+      <c r="C216" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D216">
+        <v>25080211053</v>
+      </c>
+      <c r="E216" t="s">
         <v>633</v>
       </c>
-      <c r="B216" t="s">
-        <v>631</v>
-      </c>
-      <c r="C216" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D216" s="2">
-        <v>25080211198</v>
-      </c>
-      <c r="E216" t="s">
-        <v>634</v>
-      </c>
       <c r="F216" t="s">
         <v>6</v>
       </c>
@@ -9441,21 +9428,21 @@
         <v>7</v>
       </c>
       <c r="H216" t="s">
-        <v>246</v>
+        <v>58</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
+        <v>634</v>
+      </c>
+      <c r="B217" t="s">
         <v>635</v>
       </c>
-      <c r="B217" t="s">
-        <v>568</v>
-      </c>
       <c r="C217" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D217" s="2">
-        <v>25080211053</v>
+        <v>1057</v>
+      </c>
+      <c r="D217">
+        <v>25080241044</v>
       </c>
       <c r="E217" t="s">
         <v>636</v>
@@ -9478,10 +9465,10 @@
         <v>638</v>
       </c>
       <c r="C218" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D218" s="2">
-        <v>25080241044</v>
+        <v>1058</v>
+      </c>
+      <c r="D218">
+        <v>24080241100</v>
       </c>
       <c r="E218" t="s">
         <v>639</v>
@@ -9493,7 +9480,7 @@
         <v>7</v>
       </c>
       <c r="H218" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
@@ -9504,10 +9491,10 @@
         <v>641</v>
       </c>
       <c r="C219" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D219" s="2">
-        <v>24080241100</v>
+        <v>1059</v>
+      </c>
+      <c r="D219">
+        <v>25080241043</v>
       </c>
       <c r="E219" t="s">
         <v>642</v>
@@ -9519,7 +9506,7 @@
         <v>7</v>
       </c>
       <c r="H219" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
@@ -9530,10 +9517,10 @@
         <v>644</v>
       </c>
       <c r="C220" t="s">
-        <v>1063</v>
-      </c>
-      <c r="D220" s="2">
-        <v>25080241043</v>
+        <v>1060</v>
+      </c>
+      <c r="D220">
+        <v>24080241034</v>
       </c>
       <c r="E220" t="s">
         <v>645</v>
@@ -9545,7 +9532,7 @@
         <v>7</v>
       </c>
       <c r="H220" t="s">
-        <v>129</v>
+        <v>35</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
@@ -9556,10 +9543,10 @@
         <v>647</v>
       </c>
       <c r="C221" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D221" s="2">
-        <v>24080241034</v>
+        <v>1061</v>
+      </c>
+      <c r="D221">
+        <v>25080211039</v>
       </c>
       <c r="E221" t="s">
         <v>648</v>
@@ -9571,7 +9558,7 @@
         <v>7</v>
       </c>
       <c r="H221" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
@@ -9582,10 +9569,10 @@
         <v>650</v>
       </c>
       <c r="C222" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D222" s="2">
-        <v>25080211039</v>
+        <v>1062</v>
+      </c>
+      <c r="D222">
+        <v>25080211024</v>
       </c>
       <c r="E222" t="s">
         <v>651</v>
@@ -9597,25 +9584,25 @@
         <v>7</v>
       </c>
       <c r="H222" t="s">
-        <v>112</v>
+        <v>31</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
+        <v>396</v>
+      </c>
+      <c r="B223" t="s">
+        <v>650</v>
+      </c>
+      <c r="C223" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D223">
+        <v>25080251103</v>
+      </c>
+      <c r="E223" t="s">
         <v>652</v>
       </c>
-      <c r="B223" t="s">
-        <v>653</v>
-      </c>
-      <c r="C223" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D223" s="2">
-        <v>25080211024</v>
-      </c>
-      <c r="E223" t="s">
-        <v>654</v>
-      </c>
       <c r="F223" t="s">
         <v>6</v>
       </c>
@@ -9623,77 +9610,77 @@
         <v>7</v>
       </c>
       <c r="H223" t="s">
-        <v>31</v>
+        <v>144</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>399</v>
+        <v>653</v>
       </c>
       <c r="B224" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C224" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D224" s="2">
-        <v>25080251103</v>
+        <v>1064</v>
+      </c>
+      <c r="D224">
+        <v>24080211129</v>
       </c>
       <c r="E224" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F224" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="G224" t="s">
         <v>7</v>
       </c>
       <c r="H224" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
+        <v>655</v>
+      </c>
+      <c r="B225" t="s">
+        <v>650</v>
+      </c>
+      <c r="C225" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D225">
+        <v>25080211018</v>
+      </c>
+      <c r="E225" t="s">
         <v>656</v>
       </c>
-      <c r="B225" t="s">
-        <v>653</v>
-      </c>
-      <c r="C225" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D225" s="2">
-        <v>24080211129</v>
-      </c>
-      <c r="E225" t="s">
-        <v>657</v>
-      </c>
       <c r="F225" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="G225" t="s">
         <v>7</v>
       </c>
       <c r="H225" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
+        <v>657</v>
+      </c>
+      <c r="B226" t="s">
+        <v>650</v>
+      </c>
+      <c r="C226" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D226">
+        <v>25080211004</v>
+      </c>
+      <c r="E226" t="s">
         <v>658</v>
       </c>
-      <c r="B226" t="s">
-        <v>653</v>
-      </c>
-      <c r="C226" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D226" s="2">
-        <v>25080211018</v>
-      </c>
-      <c r="E226" t="s">
-        <v>659</v>
-      </c>
       <c r="F226" t="s">
         <v>6</v>
       </c>
@@ -9701,21 +9688,21 @@
         <v>7</v>
       </c>
       <c r="H226" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
+        <v>659</v>
+      </c>
+      <c r="B227" t="s">
         <v>660</v>
       </c>
-      <c r="B227" t="s">
-        <v>653</v>
-      </c>
       <c r="C227" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D227" s="2">
-        <v>25080211004</v>
+        <v>1067</v>
+      </c>
+      <c r="D227">
+        <v>25080211139</v>
       </c>
       <c r="E227" t="s">
         <v>661</v>
@@ -9727,7 +9714,7 @@
         <v>7</v>
       </c>
       <c r="H227" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
@@ -9738,10 +9725,10 @@
         <v>663</v>
       </c>
       <c r="C228" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D228" s="2">
-        <v>25080211139</v>
+        <v>1068</v>
+      </c>
+      <c r="D228">
+        <v>25080211101</v>
       </c>
       <c r="E228" t="s">
         <v>664</v>
@@ -9753,7 +9740,7 @@
         <v>7</v>
       </c>
       <c r="H228" t="s">
-        <v>27</v>
+        <v>200</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
@@ -9764,10 +9751,10 @@
         <v>666</v>
       </c>
       <c r="C229" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D229" s="2">
-        <v>25080211101</v>
+        <v>1069</v>
+      </c>
+      <c r="D229">
+        <v>24080241086</v>
       </c>
       <c r="E229" t="s">
         <v>667</v>
@@ -9779,7 +9766,7 @@
         <v>7</v>
       </c>
       <c r="H229" t="s">
-        <v>200</v>
+        <v>112</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
@@ -9790,10 +9777,10 @@
         <v>669</v>
       </c>
       <c r="C230" t="s">
-        <v>1073</v>
-      </c>
-      <c r="D230" s="2">
-        <v>24080241086</v>
+        <v>1070</v>
+      </c>
+      <c r="D230">
+        <v>25080211129</v>
       </c>
       <c r="E230" t="s">
         <v>670</v>
@@ -9805,7 +9792,7 @@
         <v>7</v>
       </c>
       <c r="H230" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
@@ -9816,10 +9803,10 @@
         <v>672</v>
       </c>
       <c r="C231" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D231" s="2">
-        <v>25080211129</v>
+        <v>1071</v>
+      </c>
+      <c r="D231">
+        <v>25080241031</v>
       </c>
       <c r="E231" t="s">
         <v>673</v>
@@ -9831,7 +9818,7 @@
         <v>7</v>
       </c>
       <c r="H231" t="s">
-        <v>58</v>
+        <v>177</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
@@ -9842,10 +9829,10 @@
         <v>675</v>
       </c>
       <c r="C232" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D232" s="2">
-        <v>25080241031</v>
+        <v>1072</v>
+      </c>
+      <c r="D232">
+        <v>25080211195</v>
       </c>
       <c r="E232" t="s">
         <v>676</v>
@@ -9857,7 +9844,7 @@
         <v>7</v>
       </c>
       <c r="H232" t="s">
-        <v>177</v>
+        <v>8</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
@@ -9868,10 +9855,10 @@
         <v>678</v>
       </c>
       <c r="C233" t="s">
-        <v>1076</v>
-      </c>
-      <c r="D233" s="2">
-        <v>25080211195</v>
+        <v>1073</v>
+      </c>
+      <c r="D233">
+        <v>25080211172</v>
       </c>
       <c r="E233" t="s">
         <v>679</v>
@@ -9894,10 +9881,10 @@
         <v>681</v>
       </c>
       <c r="C234" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D234" s="2">
-        <v>25080211172</v>
+        <v>1074</v>
+      </c>
+      <c r="D234">
+        <v>25080241040</v>
       </c>
       <c r="E234" t="s">
         <v>682</v>
@@ -9909,25 +9896,25 @@
         <v>7</v>
       </c>
       <c r="H234" t="s">
-        <v>8</v>
+        <v>112</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
+        <v>226</v>
+      </c>
+      <c r="B235" t="s">
         <v>683</v>
       </c>
-      <c r="B235" t="s">
+      <c r="C235" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D235">
+        <v>25080211010</v>
+      </c>
+      <c r="E235" t="s">
         <v>684</v>
       </c>
-      <c r="C235" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D235" s="2">
-        <v>25080241040</v>
-      </c>
-      <c r="E235" t="s">
-        <v>685</v>
-      </c>
       <c r="F235" t="s">
         <v>6</v>
       </c>
@@ -9935,21 +9922,21 @@
         <v>7</v>
       </c>
       <c r="H235" t="s">
-        <v>112</v>
+        <v>55</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>226</v>
+        <v>685</v>
       </c>
       <c r="B236" t="s">
         <v>686</v>
       </c>
       <c r="C236" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D236" s="2">
-        <v>25080211010</v>
+        <v>1076</v>
+      </c>
+      <c r="D236">
+        <v>25080211058</v>
       </c>
       <c r="E236" t="s">
         <v>687</v>
@@ -9961,7 +9948,7 @@
         <v>7</v>
       </c>
       <c r="H236" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
@@ -9972,10 +9959,10 @@
         <v>689</v>
       </c>
       <c r="C237" t="s">
-        <v>1080</v>
-      </c>
-      <c r="D237" s="2">
-        <v>25080211058</v>
+        <v>1077</v>
+      </c>
+      <c r="D237">
+        <v>24080241109</v>
       </c>
       <c r="E237" t="s">
         <v>690</v>
@@ -9987,7 +9974,7 @@
         <v>7</v>
       </c>
       <c r="H237" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
@@ -9998,10 +9985,10 @@
         <v>692</v>
       </c>
       <c r="C238" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D238" s="2">
-        <v>24080241109</v>
+        <v>1078</v>
+      </c>
+      <c r="D238">
+        <v>25080211012</v>
       </c>
       <c r="E238" t="s">
         <v>693</v>
@@ -10013,7 +10000,7 @@
         <v>7</v>
       </c>
       <c r="H238" t="s">
-        <v>129</v>
+        <v>58</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
@@ -10024,10 +10011,10 @@
         <v>695</v>
       </c>
       <c r="C239" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D239" s="2">
-        <v>25080211012</v>
+        <v>1079</v>
+      </c>
+      <c r="D239">
+        <v>25080211196</v>
       </c>
       <c r="E239" t="s">
         <v>696</v>
@@ -10039,7 +10026,7 @@
         <v>7</v>
       </c>
       <c r="H239" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
@@ -10050,22 +10037,22 @@
         <v>698</v>
       </c>
       <c r="C240" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D240" s="2">
-        <v>25080211196</v>
+        <v>1080</v>
+      </c>
+      <c r="D240">
+        <v>24080211150</v>
       </c>
       <c r="E240" t="s">
         <v>699</v>
       </c>
       <c r="F240" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="G240" t="s">
         <v>7</v>
       </c>
       <c r="H240" t="s">
-        <v>51</v>
+        <v>144</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
@@ -10076,22 +10063,22 @@
         <v>701</v>
       </c>
       <c r="C241" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D241" s="2">
-        <v>24080211150</v>
+        <v>1081</v>
+      </c>
+      <c r="D241">
+        <v>25080211031</v>
       </c>
       <c r="E241" t="s">
         <v>702</v>
       </c>
       <c r="F241" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="G241" t="s">
         <v>7</v>
       </c>
       <c r="H241" t="s">
-        <v>144</v>
+        <v>61</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
@@ -10102,10 +10089,10 @@
         <v>704</v>
       </c>
       <c r="C242" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D242" s="2">
-        <v>25080211031</v>
+        <v>1082</v>
+      </c>
+      <c r="D242">
+        <v>25080211180</v>
       </c>
       <c r="E242" t="s">
         <v>705</v>
@@ -10117,7 +10104,7 @@
         <v>7</v>
       </c>
       <c r="H242" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
@@ -10128,10 +10115,10 @@
         <v>707</v>
       </c>
       <c r="C243" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D243" s="2">
-        <v>25080211180</v>
+        <v>1083</v>
+      </c>
+      <c r="D243">
+        <v>25080211041</v>
       </c>
       <c r="E243" t="s">
         <v>708</v>
@@ -10143,7 +10130,7 @@
         <v>7</v>
       </c>
       <c r="H243" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
@@ -10154,10 +10141,10 @@
         <v>710</v>
       </c>
       <c r="C244" t="s">
-        <v>1087</v>
-      </c>
-      <c r="D244" s="2">
-        <v>25080211041</v>
+        <v>1084</v>
+      </c>
+      <c r="D244">
+        <v>25080211173</v>
       </c>
       <c r="E244" t="s">
         <v>711</v>
@@ -10169,7 +10156,7 @@
         <v>7</v>
       </c>
       <c r="H244" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
@@ -10180,10 +10167,10 @@
         <v>713</v>
       </c>
       <c r="C245" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D245" s="2">
-        <v>25080211173</v>
+        <v>1085</v>
+      </c>
+      <c r="D245">
+        <v>24080241027</v>
       </c>
       <c r="E245" t="s">
         <v>714</v>
@@ -10195,7 +10182,7 @@
         <v>7</v>
       </c>
       <c r="H245" t="s">
-        <v>44</v>
+        <v>200</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
@@ -10206,22 +10193,22 @@
         <v>716</v>
       </c>
       <c r="C246" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D246" s="2">
-        <v>24080241027</v>
+        <v>1086</v>
+      </c>
+      <c r="D246">
+        <v>24080211037</v>
       </c>
       <c r="E246" t="s">
         <v>717</v>
       </c>
       <c r="F246" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="G246" t="s">
         <v>7</v>
       </c>
       <c r="H246" t="s">
-        <v>200</v>
+        <v>112</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
@@ -10232,40 +10219,40 @@
         <v>719</v>
       </c>
       <c r="C247" t="s">
-        <v>1090</v>
-      </c>
-      <c r="D247" s="2">
-        <v>24080211037</v>
+        <v>1087</v>
+      </c>
+      <c r="D247">
+        <v>25080211144</v>
       </c>
       <c r="E247" t="s">
         <v>720</v>
       </c>
       <c r="F247" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="G247" t="s">
         <v>7</v>
       </c>
       <c r="H247" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
+        <v>354</v>
+      </c>
+      <c r="B248" t="s">
         <v>721</v>
       </c>
-      <c r="B248" t="s">
+      <c r="C248" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D248">
+        <v>25080211094</v>
+      </c>
+      <c r="E248" t="s">
         <v>722</v>
       </c>
-      <c r="C248" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D248" s="2">
-        <v>25080211144</v>
-      </c>
-      <c r="E248" t="s">
-        <v>723</v>
-      </c>
       <c r="F248" t="s">
         <v>6</v>
       </c>
@@ -10273,21 +10260,21 @@
         <v>7</v>
       </c>
       <c r="H248" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>357</v>
+        <v>723</v>
       </c>
       <c r="B249" t="s">
         <v>724</v>
       </c>
       <c r="C249" t="s">
-        <v>1092</v>
-      </c>
-      <c r="D249" s="2">
-        <v>25080211094</v>
+        <v>1089</v>
+      </c>
+      <c r="D249">
+        <v>25080211149</v>
       </c>
       <c r="E249" t="s">
         <v>725</v>
@@ -10299,7 +10286,7 @@
         <v>7</v>
       </c>
       <c r="H249" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
@@ -10310,10 +10297,10 @@
         <v>727</v>
       </c>
       <c r="C250" t="s">
-        <v>1093</v>
-      </c>
-      <c r="D250" s="2">
-        <v>25080211149</v>
+        <v>1090</v>
+      </c>
+      <c r="D250">
+        <v>25080251085</v>
       </c>
       <c r="E250" t="s">
         <v>728</v>
@@ -10325,7 +10312,7 @@
         <v>7</v>
       </c>
       <c r="H250" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
@@ -10336,10 +10323,10 @@
         <v>730</v>
       </c>
       <c r="C251" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D251" s="2">
-        <v>25080251085</v>
+        <v>1091</v>
+      </c>
+      <c r="D251">
+        <v>25080211021</v>
       </c>
       <c r="E251" t="s">
         <v>731</v>
@@ -10351,7 +10338,7 @@
         <v>7</v>
       </c>
       <c r="H251" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
@@ -10362,10 +10349,10 @@
         <v>733</v>
       </c>
       <c r="C252" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D252" s="2">
-        <v>25080211021</v>
+        <v>1092</v>
+      </c>
+      <c r="D252">
+        <v>25080211123</v>
       </c>
       <c r="E252" t="s">
         <v>734</v>
@@ -10377,7 +10364,7 @@
         <v>7</v>
       </c>
       <c r="H252" t="s">
-        <v>84</v>
+        <v>177</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
@@ -10388,10 +10375,10 @@
         <v>736</v>
       </c>
       <c r="C253" t="s">
-        <v>1096</v>
-      </c>
-      <c r="D253" s="2">
-        <v>25080211123</v>
+        <v>1093</v>
+      </c>
+      <c r="D253">
+        <v>25080211197</v>
       </c>
       <c r="E253" t="s">
         <v>737</v>
@@ -10403,7 +10390,7 @@
         <v>7</v>
       </c>
       <c r="H253" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
@@ -10414,10 +10401,10 @@
         <v>739</v>
       </c>
       <c r="C254" t="s">
-        <v>1097</v>
-      </c>
-      <c r="D254" s="2">
-        <v>25080211197</v>
+        <v>1094</v>
+      </c>
+      <c r="D254">
+        <v>25080211033</v>
       </c>
       <c r="E254" t="s">
         <v>740</v>
@@ -10429,7 +10416,7 @@
         <v>7</v>
       </c>
       <c r="H254" t="s">
-        <v>200</v>
+        <v>88</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
@@ -10440,10 +10427,10 @@
         <v>742</v>
       </c>
       <c r="C255" t="s">
-        <v>1098</v>
-      </c>
-      <c r="D255" s="2">
-        <v>25080211033</v>
+        <v>1095</v>
+      </c>
+      <c r="D255">
+        <v>25080251074</v>
       </c>
       <c r="E255" t="s">
         <v>743</v>
@@ -10455,7 +10442,7 @@
         <v>7</v>
       </c>
       <c r="H255" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
@@ -10466,10 +10453,10 @@
         <v>745</v>
       </c>
       <c r="C256" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D256" s="2">
-        <v>25080251074</v>
+        <v>1096</v>
+      </c>
+      <c r="D256">
+        <v>25080211115</v>
       </c>
       <c r="E256" t="s">
         <v>746</v>
@@ -10481,7 +10468,7 @@
         <v>7</v>
       </c>
       <c r="H256" t="s">
-        <v>48</v>
+        <v>177</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
@@ -10492,10 +10479,10 @@
         <v>748</v>
       </c>
       <c r="C257" t="s">
-        <v>1100</v>
-      </c>
-      <c r="D257" s="2">
-        <v>25080211115</v>
+        <v>1097</v>
+      </c>
+      <c r="D257">
+        <v>25080211035</v>
       </c>
       <c r="E257" t="s">
         <v>749</v>
@@ -10507,7 +10494,7 @@
         <v>7</v>
       </c>
       <c r="H257" t="s">
-        <v>177</v>
+        <v>95</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
@@ -10518,10 +10505,10 @@
         <v>751</v>
       </c>
       <c r="C258" t="s">
-        <v>1101</v>
-      </c>
-      <c r="D258" s="2">
-        <v>25080211035</v>
+        <v>1098</v>
+      </c>
+      <c r="D258">
+        <v>25080251118</v>
       </c>
       <c r="E258" t="s">
         <v>752</v>
@@ -10533,7 +10520,7 @@
         <v>7</v>
       </c>
       <c r="H258" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
@@ -10544,10 +10531,10 @@
         <v>754</v>
       </c>
       <c r="C259" t="s">
-        <v>1102</v>
-      </c>
-      <c r="D259" s="2">
-        <v>25080251118</v>
+        <v>1099</v>
+      </c>
+      <c r="D259">
+        <v>25080211110</v>
       </c>
       <c r="E259" t="s">
         <v>755</v>
@@ -10559,7 +10546,7 @@
         <v>7</v>
       </c>
       <c r="H259" t="s">
-        <v>8</v>
+        <v>129</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
@@ -10570,10 +10557,10 @@
         <v>757</v>
       </c>
       <c r="C260" t="s">
-        <v>1103</v>
-      </c>
-      <c r="D260" s="2">
-        <v>25080211110</v>
+        <v>1100</v>
+      </c>
+      <c r="D260">
+        <v>25080211081</v>
       </c>
       <c r="E260" t="s">
         <v>758</v>
@@ -10585,7 +10572,7 @@
         <v>7</v>
       </c>
       <c r="H260" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
@@ -10596,10 +10583,10 @@
         <v>760</v>
       </c>
       <c r="C261" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D261" s="2">
-        <v>25080211081</v>
+        <v>1101</v>
+      </c>
+      <c r="D261">
+        <v>25080211166</v>
       </c>
       <c r="E261" t="s">
         <v>761</v>
@@ -10611,7 +10598,7 @@
         <v>7</v>
       </c>
       <c r="H261" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
@@ -10622,10 +10609,10 @@
         <v>763</v>
       </c>
       <c r="C262" t="s">
-        <v>1105</v>
-      </c>
-      <c r="D262" s="2">
-        <v>25080211166</v>
+        <v>1102</v>
+      </c>
+      <c r="D262">
+        <v>23080211153</v>
       </c>
       <c r="E262" t="s">
         <v>764</v>
@@ -10637,7 +10624,7 @@
         <v>7</v>
       </c>
       <c r="H262" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
@@ -10648,10 +10635,10 @@
         <v>766</v>
       </c>
       <c r="C263" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D263" s="2">
-        <v>23080211153</v>
+        <v>1103</v>
+      </c>
+      <c r="D263">
+        <v>25080211174</v>
       </c>
       <c r="E263" t="s">
         <v>767</v>
@@ -10663,7 +10650,7 @@
         <v>7</v>
       </c>
       <c r="H263" t="s">
-        <v>51</v>
+        <v>213</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
@@ -10671,17 +10658,17 @@
         <v>768</v>
       </c>
       <c r="B264" t="s">
+        <v>766</v>
+      </c>
+      <c r="C264" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D264">
+        <v>25080251126</v>
+      </c>
+      <c r="E264" t="s">
         <v>769</v>
       </c>
-      <c r="C264" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D264" s="2">
-        <v>25080211174</v>
-      </c>
-      <c r="E264" t="s">
-        <v>770</v>
-      </c>
       <c r="F264" t="s">
         <v>6</v>
       </c>
@@ -10689,21 +10676,21 @@
         <v>7</v>
       </c>
       <c r="H264" t="s">
-        <v>213</v>
+        <v>20</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
+        <v>770</v>
+      </c>
+      <c r="B265" t="s">
         <v>771</v>
       </c>
-      <c r="B265" t="s">
-        <v>769</v>
-      </c>
       <c r="C265" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D265" s="2">
-        <v>25080251126</v>
+        <v>1105</v>
+      </c>
+      <c r="D265">
+        <v>25080211078</v>
       </c>
       <c r="E265" t="s">
         <v>772</v>
@@ -10715,7 +10702,7 @@
         <v>7</v>
       </c>
       <c r="H265" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
@@ -10726,10 +10713,10 @@
         <v>774</v>
       </c>
       <c r="C266" t="s">
-        <v>1109</v>
-      </c>
-      <c r="D266" s="2">
-        <v>25080211078</v>
+        <v>1106</v>
+      </c>
+      <c r="D266">
+        <v>25080211072</v>
       </c>
       <c r="E266" t="s">
         <v>775</v>
@@ -10741,7 +10728,7 @@
         <v>7</v>
       </c>
       <c r="H266" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
@@ -10749,17 +10736,17 @@
         <v>776</v>
       </c>
       <c r="B267" t="s">
+        <v>774</v>
+      </c>
+      <c r="C267" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D267">
+        <v>25080211074</v>
+      </c>
+      <c r="E267" t="s">
         <v>777</v>
       </c>
-      <c r="C267" t="s">
-        <v>1110</v>
-      </c>
-      <c r="D267" s="2">
-        <v>25080211072</v>
-      </c>
-      <c r="E267" t="s">
-        <v>778</v>
-      </c>
       <c r="F267" t="s">
         <v>6</v>
       </c>
@@ -10767,25 +10754,25 @@
         <v>7</v>
       </c>
       <c r="H267" t="s">
-        <v>40</v>
+        <v>246</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
+        <v>194</v>
+      </c>
+      <c r="B268" t="s">
+        <v>778</v>
+      </c>
+      <c r="C268" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D268">
+        <v>25080211140</v>
+      </c>
+      <c r="E268" t="s">
         <v>779</v>
       </c>
-      <c r="B268" t="s">
-        <v>777</v>
-      </c>
-      <c r="C268" t="s">
-        <v>1111</v>
-      </c>
-      <c r="D268" s="2">
-        <v>25080211074</v>
-      </c>
-      <c r="E268" t="s">
-        <v>780</v>
-      </c>
       <c r="F268" t="s">
         <v>6</v>
       </c>
@@ -10793,21 +10780,21 @@
         <v>7</v>
       </c>
       <c r="H268" t="s">
-        <v>246</v>
+        <v>58</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>194</v>
+        <v>780</v>
       </c>
       <c r="B269" t="s">
         <v>781</v>
       </c>
       <c r="C269" t="s">
-        <v>1112</v>
-      </c>
-      <c r="D269" s="2">
-        <v>25080211140</v>
+        <v>1109</v>
+      </c>
+      <c r="D269">
+        <v>25080211011</v>
       </c>
       <c r="E269" t="s">
         <v>782</v>
@@ -10819,7 +10806,7 @@
         <v>7</v>
       </c>
       <c r="H269" t="s">
-        <v>58</v>
+        <v>190</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
@@ -10830,10 +10817,10 @@
         <v>784</v>
       </c>
       <c r="C270" t="s">
-        <v>1113</v>
-      </c>
-      <c r="D270" s="2">
-        <v>25080211011</v>
+        <v>1110</v>
+      </c>
+      <c r="D270">
+        <v>25080211005</v>
       </c>
       <c r="E270" t="s">
         <v>785</v>
@@ -10845,7 +10832,7 @@
         <v>7</v>
       </c>
       <c r="H270" t="s">
-        <v>190</v>
+        <v>8</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
@@ -10856,10 +10843,10 @@
         <v>787</v>
       </c>
       <c r="C271" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="D271">
-        <v>25080211005</v>
+        <v>25080251117</v>
       </c>
       <c r="E271" t="s">
         <v>788</v>
@@ -10871,7 +10858,7 @@
         <v>7</v>
       </c>
       <c r="H271" t="s">
-        <v>8</v>
+        <v>200</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
@@ -10882,10 +10869,10 @@
         <v>790</v>
       </c>
       <c r="C272" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D272" s="2">
-        <v>25080251117</v>
+        <v>1112</v>
+      </c>
+      <c r="D272">
+        <v>25080211176</v>
       </c>
       <c r="E272" t="s">
         <v>791</v>
@@ -10897,25 +10884,25 @@
         <v>7</v>
       </c>
       <c r="H272" t="s">
-        <v>200</v>
+        <v>65</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
+        <v>474</v>
+      </c>
+      <c r="B273" t="s">
         <v>792</v>
       </c>
-      <c r="B273" t="s">
+      <c r="C273" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D273">
+        <v>25080211186</v>
+      </c>
+      <c r="E273" t="s">
         <v>793</v>
       </c>
-      <c r="C273" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D273" s="2">
-        <v>25080211176</v>
-      </c>
-      <c r="E273" t="s">
-        <v>794</v>
-      </c>
       <c r="F273" t="s">
         <v>6</v>
       </c>
@@ -10923,21 +10910,21 @@
         <v>7</v>
       </c>
       <c r="H273" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>477</v>
+        <v>794</v>
       </c>
       <c r="B274" t="s">
         <v>795</v>
       </c>
       <c r="C274" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D274" s="2">
-        <v>25080211186</v>
+        <v>1114</v>
+      </c>
+      <c r="D274">
+        <v>25080241030</v>
       </c>
       <c r="E274" t="s">
         <v>796</v>
@@ -10949,7 +10936,7 @@
         <v>7</v>
       </c>
       <c r="H274" t="s">
-        <v>78</v>
+        <v>177</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
@@ -10960,10 +10947,10 @@
         <v>798</v>
       </c>
       <c r="C275" t="s">
-        <v>1118</v>
-      </c>
-      <c r="D275" s="2">
-        <v>25080241030</v>
+        <v>1115</v>
+      </c>
+      <c r="D275">
+        <v>25080211155</v>
       </c>
       <c r="E275" t="s">
         <v>799</v>
@@ -10975,7 +10962,7 @@
         <v>7</v>
       </c>
       <c r="H275" t="s">
-        <v>177</v>
+        <v>65</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
@@ -10986,10 +10973,10 @@
         <v>801</v>
       </c>
       <c r="C276" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D276" s="2">
-        <v>25080211155</v>
+        <v>1116</v>
+      </c>
+      <c r="D276">
+        <v>25080241074</v>
       </c>
       <c r="E276" t="s">
         <v>802</v>
@@ -11001,7 +10988,7 @@
         <v>7</v>
       </c>
       <c r="H276" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
@@ -11012,10 +10999,10 @@
         <v>804</v>
       </c>
       <c r="C277" t="s">
-        <v>1120</v>
-      </c>
-      <c r="D277" s="2">
-        <v>25080241074</v>
+        <v>1117</v>
+      </c>
+      <c r="D277">
+        <v>25080211068</v>
       </c>
       <c r="E277" t="s">
         <v>805</v>
@@ -11027,7 +11014,7 @@
         <v>7</v>
       </c>
       <c r="H277" t="s">
-        <v>144</v>
+        <v>213</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
@@ -11035,17 +11022,17 @@
         <v>806</v>
       </c>
       <c r="B278" t="s">
+        <v>804</v>
+      </c>
+      <c r="C278" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D278">
+        <v>25080211199</v>
+      </c>
+      <c r="E278" t="s">
         <v>807</v>
       </c>
-      <c r="C278" t="s">
-        <v>1121</v>
-      </c>
-      <c r="D278" s="2">
-        <v>25080211068</v>
-      </c>
-      <c r="E278" t="s">
-        <v>808</v>
-      </c>
       <c r="F278" t="s">
         <v>6</v>
       </c>
@@ -11053,21 +11040,21 @@
         <v>7</v>
       </c>
       <c r="H278" t="s">
-        <v>213</v>
+        <v>144</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
+        <v>808</v>
+      </c>
+      <c r="B279" t="s">
         <v>809</v>
       </c>
-      <c r="B279" t="s">
-        <v>807</v>
-      </c>
       <c r="C279" t="s">
-        <v>1122</v>
-      </c>
-      <c r="D279" s="2">
-        <v>25080211199</v>
+        <v>1119</v>
+      </c>
+      <c r="D279">
+        <v>25080211107</v>
       </c>
       <c r="E279" t="s">
         <v>810</v>
@@ -11079,7 +11066,7 @@
         <v>7</v>
       </c>
       <c r="H279" t="s">
-        <v>144</v>
+        <v>40</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
@@ -11087,17 +11074,17 @@
         <v>811</v>
       </c>
       <c r="B280" t="s">
+        <v>809</v>
+      </c>
+      <c r="C280" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D280">
+        <v>25080211105</v>
+      </c>
+      <c r="E280" t="s">
         <v>812</v>
       </c>
-      <c r="C280" t="s">
-        <v>1123</v>
-      </c>
-      <c r="D280" s="2">
-        <v>25080211107</v>
-      </c>
-      <c r="E280" t="s">
-        <v>813</v>
-      </c>
       <c r="F280" t="s">
         <v>6</v>
       </c>
@@ -11105,25 +11092,25 @@
         <v>7</v>
       </c>
       <c r="H280" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
+        <v>813</v>
+      </c>
+      <c r="B281" t="s">
+        <v>32</v>
+      </c>
+      <c r="C281" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D281">
+        <v>25080211201</v>
+      </c>
+      <c r="E281" t="s">
         <v>814</v>
       </c>
-      <c r="B281" t="s">
-        <v>812</v>
-      </c>
-      <c r="C281" t="s">
-        <v>1124</v>
-      </c>
-      <c r="D281" s="2">
-        <v>25080211105</v>
-      </c>
-      <c r="E281" t="s">
-        <v>815</v>
-      </c>
       <c r="F281" t="s">
         <v>6</v>
       </c>
@@ -11131,24 +11118,24 @@
         <v>7</v>
       </c>
       <c r="H281" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B282" t="s">
         <v>32</v>
       </c>
       <c r="C282" t="s">
-        <v>1125</v>
-      </c>
-      <c r="D282" s="2">
-        <v>25080211201</v>
+        <v>1122</v>
+      </c>
+      <c r="D282">
+        <v>25080211016</v>
       </c>
       <c r="E282" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F282" t="s">
         <v>6</v>
@@ -11157,21 +11144,21 @@
         <v>7</v>
       </c>
       <c r="H282" t="s">
-        <v>51</v>
+        <v>190</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
+        <v>817</v>
+      </c>
+      <c r="B283" t="s">
         <v>818</v>
       </c>
-      <c r="B283" t="s">
-        <v>32</v>
-      </c>
       <c r="C283" t="s">
-        <v>1126</v>
-      </c>
-      <c r="D283" s="2">
-        <v>25080211016</v>
+        <v>1123</v>
+      </c>
+      <c r="D283">
+        <v>25080241065</v>
       </c>
       <c r="E283" t="s">
         <v>819</v>
@@ -11183,7 +11170,7 @@
         <v>7</v>
       </c>
       <c r="H283" t="s">
-        <v>190</v>
+        <v>20</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
@@ -11194,10 +11181,10 @@
         <v>821</v>
       </c>
       <c r="C284" t="s">
-        <v>1127</v>
-      </c>
-      <c r="D284" s="2">
-        <v>25080241065</v>
+        <v>1124</v>
+      </c>
+      <c r="D284">
+        <v>25080211112</v>
       </c>
       <c r="E284" t="s">
         <v>822</v>
@@ -11209,7 +11196,7 @@
         <v>7</v>
       </c>
       <c r="H284" t="s">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
@@ -11220,10 +11207,10 @@
         <v>824</v>
       </c>
       <c r="C285" t="s">
-        <v>1128</v>
-      </c>
-      <c r="D285" s="2">
-        <v>25080211112</v>
+        <v>1125</v>
+      </c>
+      <c r="D285">
+        <v>25080211073</v>
       </c>
       <c r="E285" t="s">
         <v>825</v>
@@ -11235,7 +11222,7 @@
         <v>7</v>
       </c>
       <c r="H285" t="s">
-        <v>200</v>
+        <v>48</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
@@ -11246,10 +11233,10 @@
         <v>827</v>
       </c>
       <c r="C286" t="s">
-        <v>1129</v>
-      </c>
-      <c r="D286" s="2">
-        <v>25080211073</v>
+        <v>1126</v>
+      </c>
+      <c r="D286">
+        <v>25080211015</v>
       </c>
       <c r="E286" t="s">
         <v>828</v>
@@ -11261,7 +11248,7 @@
         <v>7</v>
       </c>
       <c r="H286" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
@@ -11272,10 +11259,10 @@
         <v>830</v>
       </c>
       <c r="C287" t="s">
-        <v>1130</v>
-      </c>
-      <c r="D287" s="2">
-        <v>25080211015</v>
+        <v>1127</v>
+      </c>
+      <c r="D287">
+        <v>25080211118</v>
       </c>
       <c r="E287" t="s">
         <v>831</v>
@@ -11287,7 +11274,7 @@
         <v>7</v>
       </c>
       <c r="H287" t="s">
-        <v>51</v>
+        <v>190</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
@@ -11298,10 +11285,10 @@
         <v>833</v>
       </c>
       <c r="C288" t="s">
-        <v>1131</v>
-      </c>
-      <c r="D288" s="2">
-        <v>25080211118</v>
+        <v>1128</v>
+      </c>
+      <c r="D288">
+        <v>25080211156</v>
       </c>
       <c r="E288" t="s">
         <v>834</v>
@@ -11313,7 +11300,7 @@
         <v>7</v>
       </c>
       <c r="H288" t="s">
-        <v>190</v>
+        <v>51</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
@@ -11324,10 +11311,10 @@
         <v>836</v>
       </c>
       <c r="C289" t="s">
-        <v>1132</v>
-      </c>
-      <c r="D289" s="2">
-        <v>25080211156</v>
+        <v>1129</v>
+      </c>
+      <c r="D289">
+        <v>25080241084</v>
       </c>
       <c r="E289" t="s">
         <v>837</v>
@@ -11339,32 +11326,6 @@
         <v>7</v>
       </c>
       <c r="H289" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
-        <v>838</v>
-      </c>
-      <c r="B290" t="s">
-        <v>839</v>
-      </c>
-      <c r="C290" t="s">
-        <v>1133</v>
-      </c>
-      <c r="D290" s="2">
-        <v>25080241084</v>
-      </c>
-      <c r="E290" t="s">
-        <v>840</v>
-      </c>
-      <c r="F290" t="s">
-        <v>6</v>
-      </c>
-      <c r="G290" t="s">
-        <v>7</v>
-      </c>
-      <c r="H290" t="s">
         <v>213</v>
       </c>
     </row>
